--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9894061273955628</v>
+        <v>1.003711559318521</v>
       </c>
       <c r="D2">
-        <v>1.010176840895467</v>
+        <v>1.019842269238</v>
       </c>
       <c r="E2">
-        <v>0.9965333755807436</v>
+        <v>1.01564357406852</v>
       </c>
       <c r="F2">
-        <v>1.007262096691149</v>
+        <v>1.018270219546469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042065970459604</v>
+        <v>1.042364125829499</v>
       </c>
       <c r="J2">
-        <v>1.011908383255919</v>
+        <v>1.025781822177775</v>
       </c>
       <c r="K2">
-        <v>1.021496193733737</v>
+        <v>1.031031921328045</v>
       </c>
       <c r="L2">
-        <v>1.008041218200031</v>
+        <v>1.026889187604511</v>
       </c>
       <c r="M2">
-        <v>1.018621177678018</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.029480756525737</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973339275261911</v>
+        <v>1.010355989284772</v>
       </c>
       <c r="D3">
-        <v>1.016134700625087</v>
+        <v>1.024806617594276</v>
       </c>
       <c r="E3">
-        <v>1.0031711792719</v>
+        <v>1.021482755442558</v>
       </c>
       <c r="F3">
-        <v>1.014616221834955</v>
+        <v>1.024854064461976</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044793070464804</v>
+        <v>1.044207635705857</v>
       </c>
       <c r="J3">
-        <v>1.017897537174249</v>
+        <v>1.030568266294414</v>
       </c>
       <c r="K3">
-        <v>1.026565214780701</v>
+        <v>1.035131634775377</v>
       </c>
       <c r="L3">
-        <v>1.013763644436674</v>
+        <v>1.031847945594748</v>
       </c>
       <c r="M3">
-        <v>1.025065439715733</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.035178510530553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002299048640433</v>
+        <v>1.01453814258375</v>
       </c>
       <c r="D4">
-        <v>1.019868051282338</v>
+        <v>1.027933220404452</v>
       </c>
       <c r="E4">
-        <v>1.007334240288597</v>
+        <v>1.025164409243142</v>
       </c>
       <c r="F4">
-        <v>1.019228650354104</v>
+        <v>1.029006731469931</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046485481134577</v>
+        <v>1.045356058074882</v>
       </c>
       <c r="J4">
-        <v>1.021644126794361</v>
+        <v>1.033577133033713</v>
       </c>
       <c r="K4">
-        <v>1.029732457281525</v>
+        <v>1.037705811518444</v>
       </c>
       <c r="L4">
-        <v>1.017344946140846</v>
+        <v>1.034968320061557</v>
       </c>
       <c r="M4">
-        <v>1.029100412131789</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.038767235298871</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004349316079149</v>
+        <v>1.016269669572152</v>
       </c>
       <c r="D5">
-        <v>1.02141002119049</v>
+        <v>1.029228084921004</v>
       </c>
       <c r="E5">
-        <v>1.009054605630847</v>
+        <v>1.0266901701446</v>
       </c>
       <c r="F5">
-        <v>1.021134755015753</v>
+        <v>1.030728077162763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047180525076875</v>
+        <v>1.045828618014906</v>
       </c>
       <c r="J5">
-        <v>1.023190093607628</v>
+        <v>1.034821910748722</v>
       </c>
       <c r="K5">
-        <v>1.031038435566725</v>
+        <v>1.038770012523261</v>
       </c>
       <c r="L5">
-        <v>1.018823073643419</v>
+        <v>1.036259995794722</v>
       </c>
       <c r="M5">
-        <v>1.030766244205795</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.040253595393514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00469145584187</v>
+        <v>1.016558877021071</v>
       </c>
       <c r="D6">
-        <v>1.021667354866038</v>
+        <v>1.029444377709551</v>
       </c>
       <c r="E6">
-        <v>1.009341765972274</v>
+        <v>1.026945093278075</v>
       </c>
       <c r="F6">
-        <v>1.021452921400792</v>
+        <v>1.031015701948262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047296284685682</v>
+        <v>1.045907373839534</v>
       </c>
       <c r="J6">
-        <v>1.023448009361531</v>
+        <v>1.035029760110703</v>
       </c>
       <c r="K6">
-        <v>1.03125625805658</v>
+        <v>1.038947665229155</v>
       </c>
       <c r="L6">
-        <v>1.019069692756994</v>
+        <v>1.036475721226236</v>
       </c>
       <c r="M6">
-        <v>1.031044207961493</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.040501883550982</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002326587112632</v>
+        <v>1.014561382253847</v>
       </c>
       <c r="D7">
-        <v>1.019888761295587</v>
+        <v>1.027950598097967</v>
       </c>
       <c r="E7">
-        <v>1.007357342637993</v>
+        <v>1.025184881557343</v>
       </c>
       <c r="F7">
-        <v>1.019254246772051</v>
+        <v>1.029029826534411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046494831909344</v>
+        <v>1.045362412153517</v>
       </c>
       <c r="J7">
-        <v>1.021664896242386</v>
+        <v>1.03359384373976</v>
       </c>
       <c r="K7">
-        <v>1.029750006307201</v>
+        <v>1.037720101022658</v>
       </c>
       <c r="L7">
-        <v>1.017364802768021</v>
+        <v>1.03498565731901</v>
       </c>
       <c r="M7">
-        <v>1.029122788498095</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.038787182441043</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921209568323071</v>
+        <v>1.005982237565636</v>
       </c>
       <c r="D8">
-        <v>1.012216568861499</v>
+        <v>1.021538324437027</v>
       </c>
       <c r="E8">
-        <v>0.9988051451223187</v>
+        <v>1.017637686314024</v>
       </c>
       <c r="F8">
-        <v>1.009779011269633</v>
+        <v>1.020518340658606</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043003088144607</v>
+        <v>1.042996606236093</v>
       </c>
       <c r="J8">
-        <v>1.013960208558065</v>
+        <v>1.027418319638453</v>
       </c>
       <c r="K8">
-        <v>1.023233563160525</v>
+        <v>1.032434239708725</v>
       </c>
       <c r="L8">
-        <v>1.01000132583901</v>
+        <v>1.028583928631008</v>
       </c>
       <c r="M8">
-        <v>1.020828129110439</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.031427369567596</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9727570362266246</v>
+        <v>0.9898970537139284</v>
       </c>
       <c r="D9">
-        <v>0.9976828429749982</v>
+        <v>1.009536448133128</v>
       </c>
       <c r="E9">
-        <v>0.9826320192486395</v>
+        <v>1.003542026393871</v>
       </c>
       <c r="F9">
-        <v>0.9918604723020583</v>
+        <v>1.004632389158987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036254899090084</v>
+        <v>1.03846739511842</v>
       </c>
       <c r="J9">
-        <v>0.9993099024695007</v>
+        <v>1.015811687589166</v>
       </c>
       <c r="K9">
-        <v>1.010813626639757</v>
+        <v>1.022476674974108</v>
       </c>
       <c r="L9">
-        <v>0.9960133084947619</v>
+        <v>1.016577896903036</v>
       </c>
       <c r="M9">
-        <v>1.005087002668765</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.017650753535404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587293258783023</v>
+        <v>0.9784146961721752</v>
       </c>
       <c r="D10">
-        <v>0.987181529949693</v>
+        <v>1.000990730530525</v>
       </c>
       <c r="E10">
-        <v>0.9709618547402578</v>
+        <v>0.9935225792868591</v>
       </c>
       <c r="F10">
-        <v>0.9789297957911511</v>
+        <v>0.9933455366325106</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031288383989543</v>
+        <v>1.035174776543198</v>
       </c>
       <c r="J10">
-        <v>0.9886817786619285</v>
+        <v>1.007511692303419</v>
       </c>
       <c r="K10">
-        <v>1.001786148112313</v>
+        <v>1.015342120042172</v>
       </c>
       <c r="L10">
-        <v>0.9858759704604347</v>
+        <v>1.008009778790919</v>
       </c>
       <c r="M10">
-        <v>0.9936901935315211</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.007835987975801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9523387200748943</v>
+        <v>0.973234830650756</v>
       </c>
       <c r="D11">
-        <v>0.9824069117833796</v>
+        <v>0.9971427475904854</v>
       </c>
       <c r="E11">
-        <v>0.965658720611866</v>
+        <v>0.9890141821443204</v>
       </c>
       <c r="F11">
-        <v>0.9730533110116</v>
+        <v>0.9882675516862031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029008837840776</v>
+        <v>1.033676335868099</v>
       </c>
       <c r="J11">
-        <v>0.9838380609388048</v>
+        <v>1.003765076192525</v>
       </c>
       <c r="K11">
-        <v>0.9976684134919338</v>
+        <v>1.012118749417402</v>
       </c>
       <c r="L11">
-        <v>0.9812586829004278</v>
+        <v>1.004146291872715</v>
       </c>
       <c r="M11">
-        <v>0.9885019453302673</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.003414169193363</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949912244425886</v>
+        <v>0.9712768523407335</v>
       </c>
       <c r="D12">
-        <v>0.9805957320436992</v>
+        <v>0.9956894713935746</v>
       </c>
       <c r="E12">
-        <v>0.9636474181439929</v>
+        <v>0.9873118813857276</v>
       </c>
       <c r="F12">
-        <v>0.9708244442402099</v>
+        <v>0.9863502387161392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028140915120851</v>
+        <v>1.033108057655014</v>
       </c>
       <c r="J12">
-        <v>0.9819988198169531</v>
+        <v>1.002348613493907</v>
       </c>
       <c r="K12">
-        <v>0.996104374697985</v>
+        <v>1.010899722913401</v>
       </c>
       <c r="L12">
-        <v>0.9795058656760502</v>
+        <v>1.002686270829861</v>
       </c>
       <c r="M12">
-        <v>0.9865327925338525</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.001743703625446</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9504352090653144</v>
+        <v>0.9716984284000139</v>
       </c>
       <c r="D13">
-        <v>0.9809860029681715</v>
+        <v>0.9960023193706761</v>
       </c>
       <c r="E13">
-        <v>0.9640807962937742</v>
+        <v>0.9876783206230858</v>
       </c>
       <c r="F13">
-        <v>0.9713047067944631</v>
+        <v>0.9867629600863882</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028328078858501</v>
+        <v>1.033230497547742</v>
       </c>
       <c r="J13">
-        <v>0.9823952230901115</v>
+        <v>1.002653604263336</v>
       </c>
       <c r="K13">
-        <v>0.9964414848219376</v>
+        <v>1.011162218648353</v>
       </c>
       <c r="L13">
-        <v>0.9798836218120867</v>
+        <v>1.003000612216655</v>
       </c>
       <c r="M13">
-        <v>0.9869571531817349</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.002103329048721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9521392550312955</v>
+        <v>0.9730736928190393</v>
       </c>
       <c r="D14">
-        <v>0.9822579897306423</v>
+        <v>0.9970231192256315</v>
       </c>
       <c r="E14">
-        <v>0.9654933368546842</v>
+        <v>0.9888740474621071</v>
       </c>
       <c r="F14">
-        <v>0.9728700399862285</v>
+        <v>0.9881097162181908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028937538971974</v>
+        <v>1.033629605040532</v>
       </c>
       <c r="J14">
-        <v>0.9836868698581744</v>
+        <v>1.003648508473028</v>
       </c>
       <c r="K14">
-        <v>0.997539853918717</v>
+        <v>1.012018437246126</v>
       </c>
       <c r="L14">
-        <v>0.9811145869257553</v>
+        <v>1.004026126804733</v>
       </c>
       <c r="M14">
-        <v>0.9883400563797217</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.003276672726922</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531820200316703</v>
+        <v>0.9739164541294405</v>
       </c>
       <c r="D15">
-        <v>0.9830365971007607</v>
+        <v>0.9976488354300631</v>
       </c>
       <c r="E15">
-        <v>0.9663580249663518</v>
+        <v>0.9896070375498689</v>
       </c>
       <c r="F15">
-        <v>0.9738282447193072</v>
+        <v>0.988935294181659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029310179650641</v>
+        <v>1.033873934818187</v>
       </c>
       <c r="J15">
-        <v>0.984477264445633</v>
+        <v>1.00425815570518</v>
       </c>
       <c r="K15">
-        <v>0.9982119173106919</v>
+        <v>1.012543052857262</v>
       </c>
       <c r="L15">
-        <v>0.9818679080535538</v>
+        <v>1.004654613588371</v>
       </c>
       <c r="M15">
-        <v>0.9891864144345568</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.003995828370832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591463572184178</v>
+        <v>0.9787538620263105</v>
       </c>
       <c r="D16">
-        <v>0.9874933259026871</v>
+        <v>1.001242850314606</v>
       </c>
       <c r="E16">
-        <v>0.9713082183673054</v>
+        <v>0.9938180285834204</v>
       </c>
       <c r="F16">
-        <v>0.9793135929522676</v>
+        <v>0.993678323222307</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031436802889783</v>
+        <v>1.035272627661775</v>
       </c>
       <c r="J16">
-        <v>0.98899784012937</v>
+        <v>1.007756971902334</v>
       </c>
       <c r="K16">
-        <v>1.002054770482938</v>
+        <v>1.015553089035985</v>
       </c>
       <c r="L16">
-        <v>0.9861773162740909</v>
+        <v>1.008262795851504</v>
       </c>
       <c r="M16">
-        <v>0.9940288591570745</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008125646869353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627994774741895</v>
+        <v>0.9817307572246209</v>
       </c>
       <c r="D17">
-        <v>0.9902256982691663</v>
+        <v>1.003456557916079</v>
       </c>
       <c r="E17">
-        <v>0.9743438395549676</v>
+        <v>0.9964125363246836</v>
       </c>
       <c r="F17">
-        <v>0.9826772262203282</v>
+        <v>0.9966007845924429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032735036936817</v>
+        <v>1.03613000859156</v>
       </c>
       <c r="J17">
-        <v>0.9917662909325372</v>
+        <v>1.009909561965761</v>
       </c>
       <c r="K17">
-        <v>1.004407304700315</v>
+        <v>1.017404251376848</v>
       </c>
       <c r="L17">
-        <v>0.9888171825361206</v>
+        <v>1.010483760523686</v>
       </c>
       <c r="M17">
-        <v>0.9969959602762434</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010668678033209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.964900129072207</v>
+        <v>0.9834472663732992</v>
       </c>
       <c r="D18">
-        <v>0.9917977578833398</v>
+        <v>1.004733662516115</v>
       </c>
       <c r="E18">
-        <v>0.9760906515428006</v>
+        <v>0.9979096327498835</v>
       </c>
       <c r="F18">
-        <v>0.9846127391904168</v>
+        <v>0.9982871880005587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033479962846963</v>
+        <v>1.036623144542945</v>
       </c>
       <c r="J18">
-        <v>0.9933580453355892</v>
+        <v>1.011150538361652</v>
       </c>
       <c r="K18">
-        <v>1.005759590811565</v>
+        <v>1.018471183991859</v>
       </c>
       <c r="L18">
-        <v>0.9903352614414274</v>
+        <v>1.011764546473845</v>
       </c>
       <c r="M18">
-        <v>0.9987024701521516</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012135552452654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9656114272673132</v>
+        <v>0.9840292596075885</v>
       </c>
       <c r="D19">
-        <v>0.9923302091455017</v>
+        <v>1.005166779234793</v>
       </c>
       <c r="E19">
-        <v>0.9766823403750546</v>
+        <v>0.9984174115266397</v>
       </c>
       <c r="F19">
-        <v>0.9852683381302207</v>
+        <v>0.9988591882965948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033731925873073</v>
+        <v>1.036790132523362</v>
       </c>
       <c r="J19">
-        <v>0.9938969904477699</v>
+        <v>1.01157125729803</v>
       </c>
       <c r="K19">
-        <v>1.006217397417483</v>
+        <v>1.018832851272261</v>
       </c>
       <c r="L19">
-        <v>0.9908493036488715</v>
+        <v>1.012198828095985</v>
       </c>
       <c r="M19">
-        <v>0.9992803601294658</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012632993397427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624106858384257</v>
+        <v>0.981413437673653</v>
       </c>
       <c r="D20">
-        <v>0.9899348074033808</v>
+        <v>1.003220520130989</v>
       </c>
       <c r="E20">
-        <v>0.9740206360118665</v>
+        <v>0.9961358643584945</v>
       </c>
       <c r="F20">
-        <v>0.9823191044832325</v>
+        <v>0.9962891335756745</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032597034473635</v>
+        <v>1.036038744881403</v>
       </c>
       <c r="J20">
-        <v>0.9914716704994254</v>
+        <v>1.009680131656223</v>
       </c>
       <c r="K20">
-        <v>1.004156980520737</v>
+        <v>1.017206975974333</v>
       </c>
       <c r="L20">
-        <v>0.9885362193585411</v>
+        <v>1.010247001950268</v>
       </c>
       <c r="M20">
-        <v>0.9966801430002407</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010397549456216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9516389567867889</v>
+        <v>0.9726696721281929</v>
       </c>
       <c r="D21">
-        <v>0.9818844920341653</v>
+        <v>0.9967231959848435</v>
       </c>
       <c r="E21">
-        <v>0.9650785586086289</v>
+        <v>0.9885227183961586</v>
       </c>
       <c r="F21">
-        <v>0.9724103990336237</v>
+        <v>0.9877140105516803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028758669262832</v>
+        <v>1.033512407142268</v>
       </c>
       <c r="J21">
-        <v>0.9833076512262384</v>
+        <v>1.003356234730781</v>
       </c>
       <c r="K21">
-        <v>0.9972173925450398</v>
+        <v>1.011766915492121</v>
       </c>
       <c r="L21">
-        <v>0.9807531715465826</v>
+        <v>1.00372484340345</v>
       </c>
       <c r="M21">
-        <v>0.9879340200802401</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002931944026346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9445581460584296</v>
+        <v>0.9669741372057333</v>
       </c>
       <c r="D22">
-        <v>0.9766028321461266</v>
+        <v>0.9924983835419942</v>
       </c>
       <c r="E22">
-        <v>0.9592139049803986</v>
+        <v>0.9835746199618554</v>
       </c>
       <c r="F22">
-        <v>0.9659111138578299</v>
+        <v>0.9821409780504353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026221583662769</v>
+        <v>1.031855913794664</v>
       </c>
       <c r="J22">
-        <v>0.9779404803541945</v>
+        <v>0.9992355602301841</v>
       </c>
       <c r="K22">
-        <v>0.9926524907280477</v>
+        <v>1.008219928233225</v>
       </c>
       <c r="L22">
-        <v>0.9756390822174095</v>
+        <v>0.999478643673933</v>
       </c>
       <c r="M22">
-        <v>0.9821895374712384</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9980747262727012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9483429742363173</v>
+        <v>0.9700132045485966</v>
       </c>
       <c r="D23">
-        <v>0.9794249145808085</v>
+        <v>0.9947519280160139</v>
       </c>
       <c r="E23">
-        <v>0.9623473250677914</v>
+        <v>0.9862137868828218</v>
       </c>
       <c r="F23">
-        <v>0.9693836837101023</v>
+        <v>0.9851134563041077</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027578951494514</v>
+        <v>1.032740785386438</v>
       </c>
       <c r="J23">
-        <v>0.980809323082673</v>
+        <v>1.001434394874036</v>
       </c>
       <c r="K23">
-        <v>0.9950927371395081</v>
+        <v>1.010112831415004</v>
       </c>
       <c r="L23">
-        <v>0.9783723916174045</v>
+        <v>1.001744115427675</v>
       </c>
       <c r="M23">
-        <v>0.9852595408054248</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000665900293165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.962586456839219</v>
+        <v>0.9815568819033441</v>
       </c>
       <c r="D24">
-        <v>0.9900663152252382</v>
+        <v>1.003327218929185</v>
       </c>
       <c r="E24">
-        <v>0.9741667510836812</v>
+        <v>0.9962609305256406</v>
       </c>
       <c r="F24">
-        <v>0.9824810056555786</v>
+        <v>0.9964300113740613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032659429760144</v>
+        <v>1.036080004474795</v>
       </c>
       <c r="J24">
-        <v>0.9916048677020064</v>
+        <v>1.009783846295769</v>
       </c>
       <c r="K24">
-        <v>1.004270152528218</v>
+        <v>1.017296155734674</v>
       </c>
       <c r="L24">
-        <v>0.9886632413552009</v>
+        <v>1.010354028137653</v>
       </c>
       <c r="M24">
-        <v>0.996822921572536</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010520111410659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9779447531862836</v>
+        <v>0.9941806039731675</v>
       </c>
       <c r="D25">
-        <v>1.001572771226669</v>
+        <v>1.01272946823483</v>
       </c>
       <c r="E25">
-        <v>0.9869578310985059</v>
+        <v>1.007288891797863</v>
       </c>
       <c r="F25">
-        <v>0.9966532196832955</v>
+        <v>1.008854102302596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038076442229333</v>
+        <v>1.039683997404571</v>
       </c>
       <c r="J25">
-        <v>1.003237864644025</v>
+        <v>1.018905413787706</v>
       </c>
       <c r="K25">
-        <v>1.014146720912235</v>
+        <v>1.025133337963454</v>
       </c>
       <c r="L25">
-        <v>0.9997620412053227</v>
+        <v>1.019775101126489</v>
       </c>
       <c r="M25">
-        <v>1.009303713231485</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.021316507219815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003711559318521</v>
+        <v>1.014980092205897</v>
       </c>
       <c r="D2">
-        <v>1.019842269238</v>
+        <v>1.031025087677408</v>
       </c>
       <c r="E2">
-        <v>1.01564357406852</v>
+        <v>1.025956923607656</v>
       </c>
       <c r="F2">
-        <v>1.018270219546469</v>
+        <v>1.029006775434959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042364125829499</v>
+        <v>1.052045502698074</v>
       </c>
       <c r="J2">
-        <v>1.025781822177775</v>
+        <v>1.036721800111264</v>
       </c>
       <c r="K2">
-        <v>1.031031921328045</v>
+        <v>1.042068474229743</v>
       </c>
       <c r="L2">
-        <v>1.026889187604511</v>
+        <v>1.037066104231053</v>
       </c>
       <c r="M2">
-        <v>1.029480756525737</v>
+        <v>1.040076266184082</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010355989284772</v>
+        <v>1.019371112021891</v>
       </c>
       <c r="D3">
-        <v>1.024806617594276</v>
+        <v>1.034339977101079</v>
       </c>
       <c r="E3">
-        <v>1.021482755442558</v>
+        <v>1.029764137269242</v>
       </c>
       <c r="F3">
-        <v>1.024854064461976</v>
+        <v>1.033461792096097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044207635705857</v>
+        <v>1.053570301801234</v>
       </c>
       <c r="J3">
-        <v>1.030568266294414</v>
+        <v>1.039347277993212</v>
       </c>
       <c r="K3">
-        <v>1.035131634775377</v>
+        <v>1.044551545422975</v>
       </c>
       <c r="L3">
-        <v>1.031847945594748</v>
+        <v>1.040029834061151</v>
       </c>
       <c r="M3">
-        <v>1.035178510530553</v>
+        <v>1.043683702609445</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01453814258375</v>
+        <v>1.022154837590651</v>
       </c>
       <c r="D4">
-        <v>1.027933220404452</v>
+        <v>1.036443098795097</v>
       </c>
       <c r="E4">
-        <v>1.025164409243142</v>
+        <v>1.032183548927423</v>
       </c>
       <c r="F4">
-        <v>1.029006731469931</v>
+        <v>1.036293678601772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045356058074882</v>
+        <v>1.054526225216746</v>
       </c>
       <c r="J4">
-        <v>1.033577133033713</v>
+        <v>1.041008310950403</v>
       </c>
       <c r="K4">
-        <v>1.037705811518444</v>
+        <v>1.046120717502175</v>
       </c>
       <c r="L4">
-        <v>1.034968320061557</v>
+        <v>1.041908464401148</v>
       </c>
       <c r="M4">
-        <v>1.038767235298871</v>
+        <v>1.045972948336462</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016269669572152</v>
+        <v>1.023311807537091</v>
       </c>
       <c r="D5">
-        <v>1.029228084921004</v>
+        <v>1.03731753839221</v>
       </c>
       <c r="E5">
-        <v>1.0266901701446</v>
+        <v>1.033190461428787</v>
       </c>
       <c r="F5">
-        <v>1.030728077162763</v>
+        <v>1.037472468042476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045828618014906</v>
+        <v>1.054920911052131</v>
       </c>
       <c r="J5">
-        <v>1.034821910748722</v>
+        <v>1.04169781877271</v>
       </c>
       <c r="K5">
-        <v>1.038770012523261</v>
+        <v>1.046771659378992</v>
       </c>
       <c r="L5">
-        <v>1.036259995794722</v>
+        <v>1.04268916882104</v>
       </c>
       <c r="M5">
-        <v>1.040253595393514</v>
+        <v>1.046924923730593</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016558877021071</v>
+        <v>1.023505300752061</v>
       </c>
       <c r="D6">
-        <v>1.029444377709551</v>
+        <v>1.037463799611074</v>
       </c>
       <c r="E6">
-        <v>1.026945093278075</v>
+        <v>1.033358937783496</v>
       </c>
       <c r="F6">
-        <v>1.031015701948262</v>
+        <v>1.037669715854871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045907373839534</v>
+        <v>1.054986764057785</v>
       </c>
       <c r="J6">
-        <v>1.035029760110703</v>
+        <v>1.041813082172936</v>
       </c>
       <c r="K6">
-        <v>1.038947665229155</v>
+        <v>1.046880450005722</v>
       </c>
       <c r="L6">
-        <v>1.036475721226236</v>
+        <v>1.042819728705087</v>
       </c>
       <c r="M6">
-        <v>1.040501883550982</v>
+        <v>1.047084163251866</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014561382253847</v>
+        <v>1.022170348764465</v>
       </c>
       <c r="D7">
-        <v>1.027950598097967</v>
+        <v>1.036454820873716</v>
       </c>
       <c r="E7">
-        <v>1.025184881557343</v>
+        <v>1.032197042998028</v>
       </c>
       <c r="F7">
-        <v>1.029029826534411</v>
+        <v>1.036309475204804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045362412153517</v>
+        <v>1.054531527037094</v>
       </c>
       <c r="J7">
-        <v>1.03359384373976</v>
+        <v>1.04101755838541</v>
       </c>
       <c r="K7">
-        <v>1.037720101022658</v>
+        <v>1.046129449431988</v>
       </c>
       <c r="L7">
-        <v>1.03498565731901</v>
+        <v>1.041918931484338</v>
       </c>
       <c r="M7">
-        <v>1.038787182441043</v>
+        <v>1.045985709181992</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005982237565636</v>
+        <v>1.01647626677467</v>
       </c>
       <c r="D8">
-        <v>1.021538324437027</v>
+        <v>1.032154218547992</v>
       </c>
       <c r="E8">
-        <v>1.017637686314024</v>
+        <v>1.027252939794278</v>
       </c>
       <c r="F8">
-        <v>1.020518340658606</v>
+        <v>1.030523153156187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042996606236093</v>
+        <v>1.052567282859866</v>
       </c>
       <c r="J8">
-        <v>1.027418319638453</v>
+        <v>1.037617088870992</v>
       </c>
       <c r="K8">
-        <v>1.032434239708725</v>
+        <v>1.042915566902231</v>
       </c>
       <c r="L8">
-        <v>1.028583928631008</v>
+        <v>1.038075985249856</v>
       </c>
       <c r="M8">
-        <v>1.031427369567596</v>
+        <v>1.04130495203707</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9898970537139284</v>
+        <v>1.005979351808515</v>
       </c>
       <c r="D9">
-        <v>1.009536448133128</v>
+        <v>1.024241282787657</v>
       </c>
       <c r="E9">
-        <v>1.003542026393871</v>
+        <v>1.018186287179187</v>
       </c>
       <c r="F9">
-        <v>1.004632389158987</v>
+        <v>1.01991751208155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03846739511842</v>
+        <v>1.048862598722451</v>
       </c>
       <c r="J9">
-        <v>1.015811687589166</v>
+        <v>1.031322716358437</v>
       </c>
       <c r="K9">
-        <v>1.022476674974108</v>
+        <v>1.036952934964264</v>
       </c>
       <c r="L9">
-        <v>1.016577896903036</v>
+        <v>1.030991037917835</v>
       </c>
       <c r="M9">
-        <v>1.017650753535404</v>
+        <v>1.032695500303332</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9784146961721752</v>
+        <v>0.9986366760928821</v>
       </c>
       <c r="D10">
-        <v>1.000990730530525</v>
+        <v>1.018719689675192</v>
       </c>
       <c r="E10">
-        <v>0.9935225792868591</v>
+        <v>1.011878768688703</v>
       </c>
       <c r="F10">
-        <v>0.9933455366325106</v>
+        <v>1.012541742629543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035174776543198</v>
+        <v>1.046217044049082</v>
       </c>
       <c r="J10">
-        <v>1.007511692303419</v>
+        <v>1.026904489221031</v>
       </c>
       <c r="K10">
-        <v>1.015342120042172</v>
+        <v>1.032758984590651</v>
       </c>
       <c r="L10">
-        <v>1.008009778790919</v>
+        <v>1.026036810135119</v>
       </c>
       <c r="M10">
-        <v>1.007835987975801</v>
+        <v>1.026688185050449</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.973234830650756</v>
+        <v>0.995367397205156</v>
       </c>
       <c r="D11">
-        <v>0.9971427475904854</v>
+        <v>1.016265238097804</v>
       </c>
       <c r="E11">
-        <v>0.9890141821443204</v>
+        <v>1.009079185077779</v>
       </c>
       <c r="F11">
-        <v>0.9882675516862031</v>
+        <v>1.009268275879134</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033676335868099</v>
+        <v>1.045026875602168</v>
       </c>
       <c r="J11">
-        <v>1.003765076192525</v>
+        <v>1.024934175913798</v>
       </c>
       <c r="K11">
-        <v>1.012118749417402</v>
+        <v>1.030886799138938</v>
       </c>
       <c r="L11">
-        <v>1.004146291872715</v>
+        <v>1.02383188861767</v>
       </c>
       <c r="M11">
-        <v>1.003414169193363</v>
+        <v>1.024017497417861</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9712768523407335</v>
+        <v>0.9941388015739895</v>
       </c>
       <c r="D12">
-        <v>0.9956894713935746</v>
+        <v>1.015343526032281</v>
       </c>
       <c r="E12">
-        <v>0.9873118813857276</v>
+        <v>1.008028474515555</v>
       </c>
       <c r="F12">
-        <v>0.9863502387161392</v>
+        <v>1.008039723591837</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033108057655014</v>
+        <v>1.044577820586829</v>
       </c>
       <c r="J12">
-        <v>1.002348613493907</v>
+        <v>1.024193306082723</v>
       </c>
       <c r="K12">
-        <v>1.010899722913401</v>
+        <v>1.030182556055886</v>
       </c>
       <c r="L12">
-        <v>1.002686270829861</v>
+        <v>1.023003461235063</v>
       </c>
       <c r="M12">
-        <v>1.001743703625446</v>
+        <v>1.023014499259191</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9716984284000139</v>
+        <v>0.9944029963535811</v>
       </c>
       <c r="D13">
-        <v>0.9960023193706761</v>
+        <v>1.015541697684536</v>
       </c>
       <c r="E13">
-        <v>0.9876783206230858</v>
+        <v>1.008254354325077</v>
       </c>
       <c r="F13">
-        <v>0.9867629600863882</v>
+        <v>1.008303835440496</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033230497547742</v>
+        <v>1.04467446449653</v>
       </c>
       <c r="J13">
-        <v>1.002653604263336</v>
+        <v>1.024352639776197</v>
       </c>
       <c r="K13">
-        <v>1.011162218648353</v>
+        <v>1.030334024720487</v>
       </c>
       <c r="L13">
-        <v>1.003000612216655</v>
+        <v>1.023181595632707</v>
       </c>
       <c r="M13">
-        <v>1.002103329048721</v>
+        <v>1.023230152096408</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9730736928190393</v>
+        <v>0.9952661360615392</v>
       </c>
       <c r="D14">
-        <v>0.9970231192256315</v>
+        <v>1.016189256310162</v>
       </c>
       <c r="E14">
-        <v>0.9888740474621071</v>
+        <v>1.008992557038731</v>
       </c>
       <c r="F14">
-        <v>0.9881097162181908</v>
+        <v>1.009166985242993</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033629605040532</v>
+        <v>1.04498990045095</v>
       </c>
       <c r="J14">
-        <v>1.003648508473028</v>
+        <v>1.024873121639044</v>
       </c>
       <c r="K14">
-        <v>1.012018437246126</v>
+        <v>1.030828768665047</v>
       </c>
       <c r="L14">
-        <v>1.004026126804733</v>
+        <v>1.023763605459372</v>
       </c>
       <c r="M14">
-        <v>1.003276672726922</v>
+        <v>1.023934816680133</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739164541294405</v>
+        <v>0.9957960349749128</v>
       </c>
       <c r="D15">
-        <v>0.9976488354300631</v>
+        <v>1.016586896304833</v>
       </c>
       <c r="E15">
-        <v>0.9896070375498689</v>
+        <v>1.00944593731003</v>
       </c>
       <c r="F15">
-        <v>0.988935294181659</v>
+        <v>1.009697104606828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033873934818187</v>
+        <v>1.045183318547918</v>
       </c>
       <c r="J15">
-        <v>1.00425815570518</v>
+        <v>1.025192601180066</v>
       </c>
       <c r="K15">
-        <v>1.012543052857262</v>
+        <v>1.031132414558308</v>
       </c>
       <c r="L15">
-        <v>1.004654613588371</v>
+        <v>1.024120938500938</v>
       </c>
       <c r="M15">
-        <v>1.003995828370832</v>
+        <v>1.024367511062809</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9787538620263105</v>
+        <v>0.998851692229917</v>
       </c>
       <c r="D16">
-        <v>1.001242850314606</v>
+        <v>1.018881204923568</v>
       </c>
       <c r="E16">
-        <v>0.9938180285834204</v>
+        <v>1.012063081202923</v>
       </c>
       <c r="F16">
-        <v>0.993678323222307</v>
+        <v>1.012757256649978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035272627661775</v>
+        <v>1.046295068852086</v>
       </c>
       <c r="J16">
-        <v>1.007756971902334</v>
+        <v>1.027034012646639</v>
       </c>
       <c r="K16">
-        <v>1.015553089035985</v>
+        <v>1.032882019084347</v>
       </c>
       <c r="L16">
-        <v>1.008262795851504</v>
+        <v>1.026181847731742</v>
       </c>
       <c r="M16">
-        <v>1.008125646869353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.0268639200435</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9817307572246209</v>
+        <v>1.00074386238993</v>
       </c>
       <c r="D17">
-        <v>1.003456557916079</v>
+        <v>1.02030302404265</v>
       </c>
       <c r="E17">
-        <v>0.9964125363246836</v>
+        <v>1.013686063021855</v>
       </c>
       <c r="F17">
-        <v>0.9966007845924429</v>
+        <v>1.014655012613295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03613000859156</v>
+        <v>1.046980308641386</v>
       </c>
       <c r="J17">
-        <v>1.009909561965761</v>
+        <v>1.028173485045097</v>
       </c>
       <c r="K17">
-        <v>1.017404251376848</v>
+        <v>1.033964192308501</v>
       </c>
       <c r="L17">
-        <v>1.010483760523686</v>
+        <v>1.027458307141059</v>
       </c>
       <c r="M17">
-        <v>1.010668678033209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.028410874619242</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834472663732992</v>
+        <v>1.001838916493521</v>
       </c>
       <c r="D18">
-        <v>1.004733662516115</v>
+        <v>1.02112624725804</v>
       </c>
       <c r="E18">
-        <v>0.9979096327498835</v>
+        <v>1.014626161316941</v>
       </c>
       <c r="F18">
-        <v>0.9982871880005587</v>
+        <v>1.015754297954161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036623144542945</v>
+        <v>1.047375710780454</v>
       </c>
       <c r="J18">
-        <v>1.011150538361652</v>
+        <v>1.028832631336728</v>
       </c>
       <c r="K18">
-        <v>1.018471183991859</v>
+        <v>1.034590013048832</v>
       </c>
       <c r="L18">
-        <v>1.011764546473845</v>
+        <v>1.028197115355515</v>
       </c>
       <c r="M18">
-        <v>1.012135552452654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.029306522041233</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9840292596075885</v>
+        <v>1.002210861756279</v>
       </c>
       <c r="D19">
-        <v>1.005166779234793</v>
+        <v>1.021405924217172</v>
       </c>
       <c r="E19">
-        <v>0.9984174115266397</v>
+        <v>1.014945613928042</v>
       </c>
       <c r="F19">
-        <v>0.9988591882965948</v>
+        <v>1.016127848842247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036790132523362</v>
+        <v>1.047509813474012</v>
       </c>
       <c r="J19">
-        <v>1.01157125729803</v>
+        <v>1.02905646436852</v>
       </c>
       <c r="K19">
-        <v>1.018832851272261</v>
+        <v>1.034802498489182</v>
       </c>
       <c r="L19">
-        <v>1.012198828095985</v>
+        <v>1.028448071332582</v>
       </c>
       <c r="M19">
-        <v>1.012632993397427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.0296108001855</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981413437673653</v>
+        <v>1.000541746898527</v>
       </c>
       <c r="D20">
-        <v>1.003220520130989</v>
+        <v>1.020151110534775</v>
       </c>
       <c r="E20">
-        <v>0.9961358643584945</v>
+        <v>1.013512614749132</v>
       </c>
       <c r="F20">
-        <v>0.9962891335756745</v>
+        <v>1.014452196639909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036038744881403</v>
+        <v>1.046907234169787</v>
       </c>
       <c r="J20">
-        <v>1.009680131656223</v>
+        <v>1.028051801072852</v>
       </c>
       <c r="K20">
-        <v>1.017206975974333</v>
+        <v>1.033848645879823</v>
       </c>
       <c r="L20">
-        <v>1.010247001950268</v>
+        <v>1.027321950862615</v>
       </c>
       <c r="M20">
-        <v>1.010397549456216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.028245594264645</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9726696721281929</v>
+        <v>0.9950123622292985</v>
       </c>
       <c r="D21">
-        <v>0.9967231959848435</v>
+        <v>1.015998846949121</v>
       </c>
       <c r="E21">
-        <v>0.9885227183961586</v>
+        <v>1.008775478010126</v>
       </c>
       <c r="F21">
-        <v>0.9877140105516803</v>
+        <v>1.008913163663571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033512407142268</v>
+        <v>1.044897207178364</v>
       </c>
       <c r="J21">
-        <v>1.003356234730781</v>
+        <v>1.024720104838654</v>
       </c>
       <c r="K21">
-        <v>1.011766915492121</v>
+        <v>1.030683325922646</v>
       </c>
       <c r="L21">
-        <v>1.00372484340345</v>
+        <v>1.023592481921614</v>
       </c>
       <c r="M21">
-        <v>1.002931944026346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.023727618367815</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9669741372057333</v>
+        <v>0.9914530257842101</v>
       </c>
       <c r="D22">
-        <v>0.9924983835419942</v>
+        <v>1.013329928726804</v>
       </c>
       <c r="E22">
-        <v>0.9835746199618554</v>
+        <v>1.00573414999801</v>
       </c>
       <c r="F22">
-        <v>0.9821409780504353</v>
+        <v>1.005357053885114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031855913794664</v>
+        <v>1.043592930290673</v>
       </c>
       <c r="J22">
-        <v>0.9992355602301841</v>
+        <v>1.02257299244301</v>
       </c>
       <c r="K22">
-        <v>1.008219928233225</v>
+        <v>1.028641862870752</v>
       </c>
       <c r="L22">
-        <v>0.999478643673933</v>
+        <v>1.021192861741284</v>
       </c>
       <c r="M22">
-        <v>0.9980747262727012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.020823128283898</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9700132045485966</v>
+        <v>0.9933480062367648</v>
       </c>
       <c r="D23">
-        <v>0.9947519280160139</v>
+        <v>1.014750456943976</v>
       </c>
       <c r="E23">
-        <v>0.9862137868828218</v>
+        <v>1.00735257003832</v>
       </c>
       <c r="F23">
-        <v>0.9851134563041077</v>
+        <v>1.007249416084837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032740785386438</v>
+        <v>1.044288285111163</v>
       </c>
       <c r="J23">
-        <v>1.001434394874036</v>
+        <v>1.023716325039353</v>
       </c>
       <c r="K23">
-        <v>1.010112831415004</v>
+        <v>1.029729081052584</v>
       </c>
       <c r="L23">
-        <v>1.001744115427675</v>
+        <v>1.022470294605452</v>
       </c>
       <c r="M23">
-        <v>1.000665900293165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.022369099115253</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9815568819033441</v>
+        <v>1.000633100763442</v>
       </c>
       <c r="D24">
-        <v>1.003327218929185</v>
+        <v>1.020219772526284</v>
       </c>
       <c r="E24">
-        <v>0.9962609305256406</v>
+        <v>1.013591008789014</v>
       </c>
       <c r="F24">
-        <v>0.9964300113740613</v>
+        <v>1.014543864020961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036080004474795</v>
+        <v>1.046940266605401</v>
       </c>
       <c r="J24">
-        <v>1.009783846295769</v>
+        <v>1.028106801753564</v>
       </c>
       <c r="K24">
-        <v>1.017296155734674</v>
+        <v>1.033900872973692</v>
       </c>
       <c r="L24">
-        <v>1.010354028137653</v>
+        <v>1.027383582066958</v>
       </c>
       <c r="M24">
-        <v>1.010520111410659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.028320297899659</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941806039731675</v>
+        <v>1.008751246163475</v>
       </c>
       <c r="D25">
-        <v>1.01272946823483</v>
+        <v>1.026328740745335</v>
       </c>
       <c r="E25">
-        <v>1.007288891797863</v>
+        <v>1.020574698353004</v>
       </c>
       <c r="F25">
-        <v>1.008854102302596</v>
+        <v>1.022710823523756</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039683997404571</v>
+        <v>1.049850394300008</v>
       </c>
       <c r="J25">
-        <v>1.018905413787706</v>
+        <v>1.032987643026267</v>
       </c>
       <c r="K25">
-        <v>1.025133337963454</v>
+        <v>1.03853163699948</v>
       </c>
       <c r="L25">
-        <v>1.019775101126489</v>
+        <v>1.032861799047632</v>
       </c>
       <c r="M25">
-        <v>1.021316507219815</v>
+        <v>1.034966523874318</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014980092205897</v>
+        <v>1.039690384347496</v>
       </c>
       <c r="D2">
-        <v>1.031025087677408</v>
+        <v>1.043064676187131</v>
       </c>
       <c r="E2">
-        <v>1.025956923607656</v>
+        <v>1.047083747646934</v>
       </c>
       <c r="F2">
-        <v>1.029006775434959</v>
+        <v>1.055334453513962</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052045502698074</v>
+        <v>1.041427754092698</v>
       </c>
       <c r="J2">
-        <v>1.036721800111264</v>
+        <v>1.044781034722957</v>
       </c>
       <c r="K2">
-        <v>1.042068474229743</v>
+        <v>1.045839595071604</v>
       </c>
       <c r="L2">
-        <v>1.037066104231053</v>
+        <v>1.04984737626476</v>
       </c>
       <c r="M2">
-        <v>1.040076266184082</v>
+        <v>1.058075196496949</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019371112021891</v>
+        <v>1.040609577373308</v>
       </c>
       <c r="D3">
-        <v>1.034339977101079</v>
+        <v>1.043770930488108</v>
       </c>
       <c r="E3">
-        <v>1.029764137269242</v>
+        <v>1.047935789649966</v>
       </c>
       <c r="F3">
-        <v>1.033461792096097</v>
+        <v>1.056349101702797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053570301801234</v>
+        <v>1.041679943851032</v>
       </c>
       <c r="J3">
-        <v>1.039347277993212</v>
+        <v>1.045345689014041</v>
       </c>
       <c r="K3">
-        <v>1.044551545422975</v>
+        <v>1.046357082479689</v>
       </c>
       <c r="L3">
-        <v>1.040029834061151</v>
+        <v>1.050511086525433</v>
       </c>
       <c r="M3">
-        <v>1.043683702609445</v>
+        <v>1.058902752084843</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022154837590651</v>
+        <v>1.041204687713334</v>
       </c>
       <c r="D4">
-        <v>1.036443098795097</v>
+        <v>1.044228070383623</v>
       </c>
       <c r="E4">
-        <v>1.032183548927423</v>
+        <v>1.048487844858186</v>
       </c>
       <c r="F4">
-        <v>1.036293678601772</v>
+        <v>1.057006714139265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054526225216746</v>
+        <v>1.041841896329369</v>
       </c>
       <c r="J4">
-        <v>1.041008310950403</v>
+        <v>1.04571075354616</v>
       </c>
       <c r="K4">
-        <v>1.046120717502175</v>
+        <v>1.046691403682436</v>
       </c>
       <c r="L4">
-        <v>1.041908464401148</v>
+        <v>1.050940633937386</v>
       </c>
       <c r="M4">
-        <v>1.045972948336462</v>
+        <v>1.059438690554835</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023311807537091</v>
+        <v>1.041454950318724</v>
       </c>
       <c r="D5">
-        <v>1.03731753839221</v>
+        <v>1.044420285625038</v>
       </c>
       <c r="E5">
-        <v>1.033190461428787</v>
+        <v>1.04872010162592</v>
       </c>
       <c r="F5">
-        <v>1.037472468042476</v>
+        <v>1.05728342864312</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054920911052131</v>
+        <v>1.041909685801266</v>
       </c>
       <c r="J5">
-        <v>1.04169781877271</v>
+        <v>1.045864152826447</v>
       </c>
       <c r="K5">
-        <v>1.046771659378992</v>
+        <v>1.046831824988231</v>
       </c>
       <c r="L5">
-        <v>1.04268916882104</v>
+        <v>1.051121234383256</v>
       </c>
       <c r="M5">
-        <v>1.046924923730593</v>
+        <v>1.059664106800137</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023505300752061</v>
+        <v>1.041496975068551</v>
       </c>
       <c r="D6">
-        <v>1.037463799611074</v>
+        <v>1.04445256134245</v>
       </c>
       <c r="E6">
-        <v>1.033358937783496</v>
+        <v>1.048759108652024</v>
       </c>
       <c r="F6">
-        <v>1.037669715854871</v>
+        <v>1.057329905097941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054986764057785</v>
+        <v>1.041921050614767</v>
       </c>
       <c r="J6">
-        <v>1.041813082172936</v>
+        <v>1.045889904882782</v>
       </c>
       <c r="K6">
-        <v>1.046880450005722</v>
+        <v>1.046855394848232</v>
       </c>
       <c r="L6">
-        <v>1.042819728705087</v>
+        <v>1.051151559060127</v>
       </c>
       <c r="M6">
-        <v>1.047084163251866</v>
+        <v>1.059701961462943</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022170348764465</v>
+        <v>1.041208031428442</v>
       </c>
       <c r="D7">
-        <v>1.036454820873716</v>
+        <v>1.044230638642651</v>
       </c>
       <c r="E7">
-        <v>1.032197042998028</v>
+        <v>1.048490947607293</v>
       </c>
       <c r="F7">
-        <v>1.036309475204804</v>
+        <v>1.057010410614608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054531527037094</v>
+        <v>1.041842803296893</v>
       </c>
       <c r="J7">
-        <v>1.04101755838541</v>
+        <v>1.045712803566203</v>
       </c>
       <c r="K7">
-        <v>1.046129449431988</v>
+        <v>1.04669328050034</v>
       </c>
       <c r="L7">
-        <v>1.041918931484338</v>
+        <v>1.050943047057147</v>
       </c>
       <c r="M7">
-        <v>1.045985709181992</v>
+        <v>1.059441702155922</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01647626677467</v>
+        <v>1.040000960786521</v>
       </c>
       <c r="D8">
-        <v>1.032154218547992</v>
+        <v>1.043303327061337</v>
       </c>
       <c r="E8">
-        <v>1.027252939794278</v>
+        <v>1.047371547906699</v>
       </c>
       <c r="F8">
-        <v>1.030523153156187</v>
+        <v>1.055677136890552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052567282859866</v>
+        <v>1.041513237355956</v>
       </c>
       <c r="J8">
-        <v>1.037617088870992</v>
+        <v>1.044971924779211</v>
       </c>
       <c r="K8">
-        <v>1.042915566902231</v>
+        <v>1.046014591048244</v>
       </c>
       <c r="L8">
-        <v>1.038075985249856</v>
+        <v>1.050071662551822</v>
       </c>
       <c r="M8">
-        <v>1.04130495203707</v>
+        <v>1.058354777957168</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005979351808515</v>
+        <v>1.037876528091758</v>
       </c>
       <c r="D9">
-        <v>1.024241282787657</v>
+        <v>1.041670464601232</v>
       </c>
       <c r="E9">
-        <v>1.018186287179187</v>
+        <v>1.045404648419296</v>
       </c>
       <c r="F9">
-        <v>1.01991751208155</v>
+        <v>1.05333596729872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048862598722451</v>
+        <v>1.040923097686924</v>
       </c>
       <c r="J9">
-        <v>1.031322716358437</v>
+        <v>1.043664110595814</v>
       </c>
       <c r="K9">
-        <v>1.036952934964264</v>
+        <v>1.04481465487762</v>
       </c>
       <c r="L9">
-        <v>1.030991037917835</v>
+        <v>1.048536849176095</v>
       </c>
       <c r="M9">
-        <v>1.032695500303332</v>
+        <v>1.05644301099452</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9986366760928821</v>
+        <v>1.036462033688124</v>
       </c>
       <c r="D10">
-        <v>1.018719689675192</v>
+        <v>1.040582762277525</v>
       </c>
       <c r="E10">
-        <v>1.011878768688703</v>
+        <v>1.044097241174737</v>
       </c>
       <c r="F10">
-        <v>1.012541742629543</v>
+        <v>1.051780794084998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046217044049082</v>
+        <v>1.040523385298083</v>
       </c>
       <c r="J10">
-        <v>1.026904489221031</v>
+        <v>1.042790749141808</v>
       </c>
       <c r="K10">
-        <v>1.032758984590651</v>
+        <v>1.044012066693779</v>
       </c>
       <c r="L10">
-        <v>1.026036810135119</v>
+        <v>1.047514156549238</v>
       </c>
       <c r="M10">
-        <v>1.026688185050449</v>
+        <v>1.055170941308986</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995367397205156</v>
+        <v>1.035849979625534</v>
       </c>
       <c r="D11">
-        <v>1.016265238097804</v>
+        <v>1.040111998788371</v>
       </c>
       <c r="E11">
-        <v>1.009079185077779</v>
+        <v>1.043532050627647</v>
       </c>
       <c r="F11">
-        <v>1.009268275879134</v>
+        <v>1.051108731918158</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045026875602168</v>
+        <v>1.040348821826855</v>
       </c>
       <c r="J11">
-        <v>1.024934175913798</v>
+        <v>1.042412233057824</v>
       </c>
       <c r="K11">
-        <v>1.030886799138938</v>
+        <v>1.043663925119564</v>
       </c>
       <c r="L11">
-        <v>1.02383188861767</v>
+        <v>1.047071454383241</v>
       </c>
       <c r="M11">
-        <v>1.024017497417861</v>
+        <v>1.054620713970781</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9941388015739895</v>
+        <v>1.035622701221376</v>
       </c>
       <c r="D12">
-        <v>1.015343526032281</v>
+        <v>1.039937170454716</v>
       </c>
       <c r="E12">
-        <v>1.008028474515555</v>
+        <v>1.043322253981538</v>
       </c>
       <c r="F12">
-        <v>1.008039723591837</v>
+        <v>1.050859300329804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044577820586829</v>
+        <v>1.040283758576276</v>
       </c>
       <c r="J12">
-        <v>1.024193306082723</v>
+        <v>1.04227158440704</v>
       </c>
       <c r="K12">
-        <v>1.030182556055886</v>
+        <v>1.043534518279036</v>
       </c>
       <c r="L12">
-        <v>1.023003461235063</v>
+        <v>1.046907035672839</v>
       </c>
       <c r="M12">
-        <v>1.023014499259191</v>
+        <v>1.05441642433547</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9944029963535811</v>
+        <v>1.035671450221496</v>
       </c>
       <c r="D13">
-        <v>1.015541697684536</v>
+        <v>1.039974670157616</v>
       </c>
       <c r="E13">
-        <v>1.008254354325077</v>
+        <v>1.043367249705812</v>
       </c>
       <c r="F13">
-        <v>1.008303835440496</v>
+        <v>1.050912795082026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04467446449653</v>
+        <v>1.040297724928803</v>
       </c>
       <c r="J13">
-        <v>1.024352639776197</v>
+        <v>1.042301756310342</v>
       </c>
       <c r="K13">
-        <v>1.030334024720487</v>
+        <v>1.043562280613952</v>
       </c>
       <c r="L13">
-        <v>1.023181595632707</v>
+        <v>1.046942303097064</v>
       </c>
       <c r="M13">
-        <v>1.023230152096408</v>
+        <v>1.054460241097607</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9952661360615392</v>
+        <v>1.035831191375605</v>
       </c>
       <c r="D14">
-        <v>1.016189256310162</v>
+        <v>1.040097546718767</v>
       </c>
       <c r="E14">
-        <v>1.008992557038731</v>
+        <v>1.043514705902337</v>
       </c>
       <c r="F14">
-        <v>1.009166985242993</v>
+        <v>1.051088109693053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04498990045095</v>
+        <v>1.040343448216122</v>
       </c>
       <c r="J14">
-        <v>1.024873121639044</v>
+        <v>1.04240060803021</v>
       </c>
       <c r="K14">
-        <v>1.030828768665047</v>
+        <v>1.043653230172166</v>
       </c>
       <c r="L14">
-        <v>1.023763605459372</v>
+        <v>1.047057863055737</v>
       </c>
       <c r="M14">
-        <v>1.023934816680133</v>
+        <v>1.054603825497957</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9957960349749128</v>
+        <v>1.035929621909786</v>
       </c>
       <c r="D15">
-        <v>1.016586896304833</v>
+        <v>1.04017325959296</v>
       </c>
       <c r="E15">
-        <v>1.00944593731003</v>
+        <v>1.043605577158775</v>
       </c>
       <c r="F15">
-        <v>1.009697104606828</v>
+        <v>1.051196153643307</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045183318547918</v>
+        <v>1.040371590361817</v>
       </c>
       <c r="J15">
-        <v>1.025192601180066</v>
+        <v>1.042461507115794</v>
       </c>
       <c r="K15">
-        <v>1.031132414558308</v>
+        <v>1.043709255092001</v>
       </c>
       <c r="L15">
-        <v>1.024120938500938</v>
+        <v>1.047129066117352</v>
       </c>
       <c r="M15">
-        <v>1.024367511062809</v>
+        <v>1.054692304450726</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.998851692229917</v>
+        <v>1.036502662867062</v>
       </c>
       <c r="D16">
-        <v>1.018881204923568</v>
+        <v>1.040614010021955</v>
       </c>
       <c r="E16">
-        <v>1.012063081202923</v>
+        <v>1.044134770614501</v>
       </c>
       <c r="F16">
-        <v>1.012757256649978</v>
+        <v>1.051825424931309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046295068852086</v>
+        <v>1.040534939253072</v>
       </c>
       <c r="J16">
-        <v>1.027034012646639</v>
+        <v>1.042815862818024</v>
       </c>
       <c r="K16">
-        <v>1.032882019084347</v>
+        <v>1.044035158812755</v>
       </c>
       <c r="L16">
-        <v>1.026181847731742</v>
+        <v>1.047543540066951</v>
       </c>
       <c r="M16">
-        <v>1.0268639200435</v>
+        <v>1.055207470549033</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00074386238993</v>
+        <v>1.036862232453386</v>
       </c>
       <c r="D17">
-        <v>1.02030302404265</v>
+        <v>1.040890540628318</v>
       </c>
       <c r="E17">
-        <v>1.013686063021855</v>
+        <v>1.04446696833425</v>
       </c>
       <c r="F17">
-        <v>1.014655012613295</v>
+        <v>1.052220509271005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046980308641386</v>
+        <v>1.040637006412749</v>
       </c>
       <c r="J17">
-        <v>1.028173485045097</v>
+        <v>1.043038049093456</v>
       </c>
       <c r="K17">
-        <v>1.033964192308501</v>
+        <v>1.044239425448929</v>
       </c>
       <c r="L17">
-        <v>1.027458307141059</v>
+        <v>1.047803564253176</v>
       </c>
       <c r="M17">
-        <v>1.028410874619242</v>
+        <v>1.055530778606474</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001838916493521</v>
+        <v>1.037072004866549</v>
       </c>
       <c r="D18">
-        <v>1.02112624725804</v>
+        <v>1.041051857274865</v>
       </c>
       <c r="E18">
-        <v>1.014626161316941</v>
+        <v>1.044660822849026</v>
       </c>
       <c r="F18">
-        <v>1.015754297954161</v>
+        <v>1.052451084309086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047375710780454</v>
+        <v>1.040696397106258</v>
       </c>
       <c r="J18">
-        <v>1.028832631336728</v>
+        <v>1.043167613260471</v>
       </c>
       <c r="K18">
-        <v>1.034590013048832</v>
+        <v>1.044358511263767</v>
       </c>
       <c r="L18">
-        <v>1.028197115355515</v>
+        <v>1.047955244486321</v>
       </c>
       <c r="M18">
-        <v>1.029306522041233</v>
+        <v>1.055719415313594</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002210861756279</v>
+        <v>1.037143538859232</v>
       </c>
       <c r="D19">
-        <v>1.021405924217172</v>
+        <v>1.041106865608258</v>
       </c>
       <c r="E19">
-        <v>1.014945613928042</v>
+        <v>1.044726937321498</v>
       </c>
       <c r="F19">
-        <v>1.016127848842247</v>
+        <v>1.052529726287538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047509813474012</v>
+        <v>1.040716623465784</v>
       </c>
       <c r="J19">
-        <v>1.02905646436852</v>
+        <v>1.043211785613355</v>
       </c>
       <c r="K19">
-        <v>1.034802498489182</v>
+        <v>1.044399106335839</v>
       </c>
       <c r="L19">
-        <v>1.028448071332582</v>
+        <v>1.048006965620622</v>
       </c>
       <c r="M19">
-        <v>1.0296108001855</v>
+        <v>1.055783745121485</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000541746898527</v>
+        <v>1.036823649734589</v>
       </c>
       <c r="D20">
-        <v>1.020151110534775</v>
+        <v>1.040860869327349</v>
       </c>
       <c r="E20">
-        <v>1.013512614749132</v>
+        <v>1.044431317426812</v>
       </c>
       <c r="F20">
-        <v>1.014452196639909</v>
+        <v>1.052178107105898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046907234169787</v>
+        <v>1.040626070396212</v>
       </c>
       <c r="J20">
-        <v>1.028051801072852</v>
+        <v>1.043014214049779</v>
       </c>
       <c r="K20">
-        <v>1.033848645879823</v>
+        <v>1.044217515715342</v>
       </c>
       <c r="L20">
-        <v>1.027321950862615</v>
+        <v>1.047775664816256</v>
       </c>
       <c r="M20">
-        <v>1.028245594264645</v>
+        <v>1.05549608485082</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9950123622292985</v>
+        <v>1.035784149765376</v>
       </c>
       <c r="D21">
-        <v>1.015998846949121</v>
+        <v>1.04006136167984</v>
       </c>
       <c r="E21">
-        <v>1.008775478010126</v>
+        <v>1.043471279844989</v>
       </c>
       <c r="F21">
-        <v>1.008913163663571</v>
+        <v>1.051036478317765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044897207178364</v>
+        <v>1.04032998998815</v>
       </c>
       <c r="J21">
-        <v>1.024720104838654</v>
+        <v>1.042371500061194</v>
       </c>
       <c r="K21">
-        <v>1.030683325922646</v>
+        <v>1.043626450314154</v>
       </c>
       <c r="L21">
-        <v>1.023592481921614</v>
+        <v>1.047023832952025</v>
       </c>
       <c r="M21">
-        <v>1.023727618367815</v>
+        <v>1.054561540997144</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9914530257842101</v>
+        <v>1.03513095560871</v>
       </c>
       <c r="D22">
-        <v>1.013329928726804</v>
+        <v>1.039558877934955</v>
       </c>
       <c r="E22">
-        <v>1.00573414999801</v>
+        <v>1.042868478399375</v>
       </c>
       <c r="F22">
-        <v>1.005357053885114</v>
+        <v>1.050319861584365</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043592930290673</v>
+        <v>1.040142544836716</v>
       </c>
       <c r="J22">
-        <v>1.02257299244301</v>
+        <v>1.041967106074668</v>
       </c>
       <c r="K22">
-        <v>1.028641862870752</v>
+        <v>1.043254294765117</v>
       </c>
       <c r="L22">
-        <v>1.021192861741284</v>
+        <v>1.046551246005844</v>
       </c>
       <c r="M22">
-        <v>1.020823128283898</v>
+        <v>1.053974473361648</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9933480062367648</v>
+        <v>1.035477189792414</v>
       </c>
       <c r="D23">
-        <v>1.014750456943976</v>
+        <v>1.039825234826177</v>
       </c>
       <c r="E23">
-        <v>1.00735257003832</v>
+        <v>1.043187957436618</v>
       </c>
       <c r="F23">
-        <v>1.007249416084837</v>
+        <v>1.05069964231641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044288285111163</v>
+        <v>1.040242034926423</v>
       </c>
       <c r="J23">
-        <v>1.023716325039353</v>
+        <v>1.042181510570191</v>
       </c>
       <c r="K23">
-        <v>1.029729081052584</v>
+        <v>1.043451631322228</v>
       </c>
       <c r="L23">
-        <v>1.022470294605452</v>
+        <v>1.046801761624401</v>
       </c>
       <c r="M23">
-        <v>1.022369099115253</v>
+        <v>1.054285639641836</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000633100763442</v>
+        <v>1.036841083476087</v>
       </c>
       <c r="D24">
-        <v>1.020219772526284</v>
+        <v>1.040874276446247</v>
       </c>
       <c r="E24">
-        <v>1.013591008789014</v>
+        <v>1.044447426261797</v>
       </c>
       <c r="F24">
-        <v>1.014543864020961</v>
+        <v>1.052197266420554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046940266605401</v>
+        <v>1.040631012354329</v>
       </c>
       <c r="J24">
-        <v>1.028106801753564</v>
+        <v>1.043024984183099</v>
       </c>
       <c r="K24">
-        <v>1.033900872973692</v>
+        <v>1.044227415964651</v>
       </c>
       <c r="L24">
-        <v>1.027383582066958</v>
+        <v>1.047788271332267</v>
       </c>
       <c r="M24">
-        <v>1.028320297899659</v>
+        <v>1.055511761290866</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008751246163475</v>
+        <v>1.038425433012668</v>
       </c>
       <c r="D25">
-        <v>1.026328740745335</v>
+        <v>1.042092450723107</v>
       </c>
       <c r="E25">
-        <v>1.020574698353004</v>
+        <v>1.045912464504228</v>
       </c>
       <c r="F25">
-        <v>1.022710823523756</v>
+        <v>1.053940232979099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049850394300008</v>
+        <v>1.041076773494662</v>
       </c>
       <c r="J25">
-        <v>1.032987643026267</v>
+        <v>1.044002477745126</v>
       </c>
       <c r="K25">
-        <v>1.03853163699948</v>
+        <v>1.045125335051925</v>
       </c>
       <c r="L25">
-        <v>1.032861799047632</v>
+        <v>1.048933548678692</v>
       </c>
       <c r="M25">
-        <v>1.034966523874318</v>
+        <v>1.056936823114824</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039690384347496</v>
+        <v>1.014980092205897</v>
       </c>
       <c r="D2">
-        <v>1.043064676187131</v>
+        <v>1.031025087677409</v>
       </c>
       <c r="E2">
-        <v>1.047083747646934</v>
+        <v>1.025956923607656</v>
       </c>
       <c r="F2">
-        <v>1.055334453513962</v>
+        <v>1.029006775434959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041427754092698</v>
+        <v>1.052045502698074</v>
       </c>
       <c r="J2">
-        <v>1.044781034722957</v>
+        <v>1.036721800111264</v>
       </c>
       <c r="K2">
-        <v>1.045839595071604</v>
+        <v>1.042068474229744</v>
       </c>
       <c r="L2">
-        <v>1.04984737626476</v>
+        <v>1.037066104231053</v>
       </c>
       <c r="M2">
-        <v>1.058075196496949</v>
+        <v>1.040076266184082</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040609577373308</v>
+        <v>1.019371112021891</v>
       </c>
       <c r="D3">
-        <v>1.043770930488108</v>
+        <v>1.034339977101079</v>
       </c>
       <c r="E3">
-        <v>1.047935789649966</v>
+        <v>1.029764137269241</v>
       </c>
       <c r="F3">
-        <v>1.056349101702797</v>
+        <v>1.033461792096096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041679943851032</v>
+        <v>1.053570301801234</v>
       </c>
       <c r="J3">
-        <v>1.045345689014041</v>
+        <v>1.039347277993211</v>
       </c>
       <c r="K3">
-        <v>1.046357082479689</v>
+        <v>1.044551545422974</v>
       </c>
       <c r="L3">
-        <v>1.050511086525433</v>
+        <v>1.04002983406115</v>
       </c>
       <c r="M3">
-        <v>1.058902752084843</v>
+        <v>1.043683702609445</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041204687713334</v>
+        <v>1.022154837590651</v>
       </c>
       <c r="D4">
-        <v>1.044228070383623</v>
+        <v>1.036443098795097</v>
       </c>
       <c r="E4">
-        <v>1.048487844858186</v>
+        <v>1.032183548927423</v>
       </c>
       <c r="F4">
-        <v>1.057006714139265</v>
+        <v>1.036293678601772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041841896329369</v>
+        <v>1.054526225216746</v>
       </c>
       <c r="J4">
-        <v>1.04571075354616</v>
+        <v>1.041008310950403</v>
       </c>
       <c r="K4">
-        <v>1.046691403682436</v>
+        <v>1.046120717502175</v>
       </c>
       <c r="L4">
-        <v>1.050940633937386</v>
+        <v>1.041908464401148</v>
       </c>
       <c r="M4">
-        <v>1.059438690554835</v>
+        <v>1.045972948336463</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041454950318724</v>
+        <v>1.023311807537091</v>
       </c>
       <c r="D5">
-        <v>1.044420285625038</v>
+        <v>1.03731753839221</v>
       </c>
       <c r="E5">
-        <v>1.04872010162592</v>
+        <v>1.033190461428787</v>
       </c>
       <c r="F5">
-        <v>1.05728342864312</v>
+        <v>1.037472468042476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041909685801266</v>
+        <v>1.054920911052131</v>
       </c>
       <c r="J5">
-        <v>1.045864152826447</v>
+        <v>1.041697818772709</v>
       </c>
       <c r="K5">
-        <v>1.046831824988231</v>
+        <v>1.046771659378992</v>
       </c>
       <c r="L5">
-        <v>1.051121234383256</v>
+        <v>1.04268916882104</v>
       </c>
       <c r="M5">
-        <v>1.059664106800137</v>
+        <v>1.046924923730592</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041496975068551</v>
+        <v>1.023505300752061</v>
       </c>
       <c r="D6">
-        <v>1.04445256134245</v>
+        <v>1.037463799611074</v>
       </c>
       <c r="E6">
-        <v>1.048759108652024</v>
+        <v>1.033358937783496</v>
       </c>
       <c r="F6">
-        <v>1.057329905097941</v>
+        <v>1.037669715854871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041921050614767</v>
+        <v>1.054986764057786</v>
       </c>
       <c r="J6">
-        <v>1.045889904882782</v>
+        <v>1.041813082172936</v>
       </c>
       <c r="K6">
-        <v>1.046855394848232</v>
+        <v>1.046880450005722</v>
       </c>
       <c r="L6">
-        <v>1.051151559060127</v>
+        <v>1.042819728705087</v>
       </c>
       <c r="M6">
-        <v>1.059701961462943</v>
+        <v>1.047084163251866</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041208031428442</v>
+        <v>1.022170348764466</v>
       </c>
       <c r="D7">
-        <v>1.044230638642651</v>
+        <v>1.036454820873717</v>
       </c>
       <c r="E7">
-        <v>1.048490947607293</v>
+        <v>1.032197042998028</v>
       </c>
       <c r="F7">
-        <v>1.057010410614608</v>
+        <v>1.036309475204805</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041842803296893</v>
+        <v>1.054531527037095</v>
       </c>
       <c r="J7">
-        <v>1.045712803566203</v>
+        <v>1.041017558385411</v>
       </c>
       <c r="K7">
-        <v>1.04669328050034</v>
+        <v>1.046129449431988</v>
       </c>
       <c r="L7">
-        <v>1.050943047057147</v>
+        <v>1.041918931484339</v>
       </c>
       <c r="M7">
-        <v>1.059441702155922</v>
+        <v>1.045985709181994</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040000960786521</v>
+        <v>1.016476266774669</v>
       </c>
       <c r="D8">
-        <v>1.043303327061337</v>
+        <v>1.032154218547991</v>
       </c>
       <c r="E8">
-        <v>1.047371547906699</v>
+        <v>1.027252939794277</v>
       </c>
       <c r="F8">
-        <v>1.055677136890552</v>
+        <v>1.030523153156186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041513237355956</v>
+        <v>1.052567282859865</v>
       </c>
       <c r="J8">
-        <v>1.044971924779211</v>
+        <v>1.037617088870991</v>
       </c>
       <c r="K8">
-        <v>1.046014591048244</v>
+        <v>1.04291556690223</v>
       </c>
       <c r="L8">
-        <v>1.050071662551822</v>
+        <v>1.038075985249855</v>
       </c>
       <c r="M8">
-        <v>1.058354777957168</v>
+        <v>1.041304952037069</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037876528091758</v>
+        <v>1.005979351808515</v>
       </c>
       <c r="D9">
-        <v>1.041670464601232</v>
+        <v>1.024241282787657</v>
       </c>
       <c r="E9">
-        <v>1.045404648419296</v>
+        <v>1.018186287179186</v>
       </c>
       <c r="F9">
-        <v>1.05333596729872</v>
+        <v>1.01991751208155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040923097686924</v>
+        <v>1.048862598722451</v>
       </c>
       <c r="J9">
-        <v>1.043664110595814</v>
+        <v>1.031322716358436</v>
       </c>
       <c r="K9">
-        <v>1.04481465487762</v>
+        <v>1.036952934964264</v>
       </c>
       <c r="L9">
-        <v>1.048536849176095</v>
+        <v>1.030991037917835</v>
       </c>
       <c r="M9">
-        <v>1.05644301099452</v>
+        <v>1.032695500303332</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036462033688124</v>
+        <v>0.9986366760928826</v>
       </c>
       <c r="D10">
-        <v>1.040582762277525</v>
+        <v>1.018719689675193</v>
       </c>
       <c r="E10">
-        <v>1.044097241174737</v>
+        <v>1.011878768688703</v>
       </c>
       <c r="F10">
-        <v>1.051780794084998</v>
+        <v>1.012541742629543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040523385298083</v>
+        <v>1.046217044049082</v>
       </c>
       <c r="J10">
-        <v>1.042790749141808</v>
+        <v>1.026904489221032</v>
       </c>
       <c r="K10">
-        <v>1.044012066693779</v>
+        <v>1.032758984590652</v>
       </c>
       <c r="L10">
-        <v>1.047514156549238</v>
+        <v>1.02603681013512</v>
       </c>
       <c r="M10">
-        <v>1.055170941308986</v>
+        <v>1.02668818505045</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035849979625534</v>
+        <v>0.9953673972051569</v>
       </c>
       <c r="D11">
-        <v>1.040111998788371</v>
+        <v>1.016265238097805</v>
       </c>
       <c r="E11">
-        <v>1.043532050627647</v>
+        <v>1.00907918507778</v>
       </c>
       <c r="F11">
-        <v>1.051108731918158</v>
+        <v>1.009268275879135</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040348821826855</v>
+        <v>1.045026875602168</v>
       </c>
       <c r="J11">
-        <v>1.042412233057824</v>
+        <v>1.024934175913799</v>
       </c>
       <c r="K11">
-        <v>1.043663925119564</v>
+        <v>1.030886799138939</v>
       </c>
       <c r="L11">
-        <v>1.047071454383241</v>
+        <v>1.02383188861767</v>
       </c>
       <c r="M11">
-        <v>1.054620713970781</v>
+        <v>1.024017497417862</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035622701221376</v>
+        <v>0.9941388015739882</v>
       </c>
       <c r="D12">
-        <v>1.039937170454716</v>
+        <v>1.015343526032279</v>
       </c>
       <c r="E12">
-        <v>1.043322253981538</v>
+        <v>1.008028474515553</v>
       </c>
       <c r="F12">
-        <v>1.050859300329804</v>
+        <v>1.008039723591836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040283758576276</v>
+        <v>1.044577820586829</v>
       </c>
       <c r="J12">
-        <v>1.04227158440704</v>
+        <v>1.024193306082722</v>
       </c>
       <c r="K12">
-        <v>1.043534518279036</v>
+        <v>1.030182556055885</v>
       </c>
       <c r="L12">
-        <v>1.046907035672839</v>
+        <v>1.023003461235062</v>
       </c>
       <c r="M12">
-        <v>1.05441642433547</v>
+        <v>1.023014499259189</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035671450221496</v>
+        <v>0.9944029963535825</v>
       </c>
       <c r="D13">
-        <v>1.039974670157616</v>
+        <v>1.015541697684537</v>
       </c>
       <c r="E13">
-        <v>1.043367249705812</v>
+        <v>1.008254354325078</v>
       </c>
       <c r="F13">
-        <v>1.050912795082026</v>
+        <v>1.008303835440497</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040297724928803</v>
+        <v>1.044674464496531</v>
       </c>
       <c r="J13">
-        <v>1.042301756310342</v>
+        <v>1.024352639776198</v>
       </c>
       <c r="K13">
-        <v>1.043562280613952</v>
+        <v>1.030334024720488</v>
       </c>
       <c r="L13">
-        <v>1.046942303097064</v>
+        <v>1.023181595632708</v>
       </c>
       <c r="M13">
-        <v>1.054460241097607</v>
+        <v>1.023230152096409</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035831191375605</v>
+        <v>0.9952661360615395</v>
       </c>
       <c r="D14">
-        <v>1.040097546718767</v>
+        <v>1.016189256310162</v>
       </c>
       <c r="E14">
-        <v>1.043514705902337</v>
+        <v>1.008992557038732</v>
       </c>
       <c r="F14">
-        <v>1.051088109693053</v>
+        <v>1.009166985242994</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040343448216122</v>
+        <v>1.044989900450951</v>
       </c>
       <c r="J14">
-        <v>1.04240060803021</v>
+        <v>1.024873121639044</v>
       </c>
       <c r="K14">
-        <v>1.043653230172166</v>
+        <v>1.030828768665048</v>
       </c>
       <c r="L14">
-        <v>1.047057863055737</v>
+        <v>1.023763605459373</v>
       </c>
       <c r="M14">
-        <v>1.054603825497957</v>
+        <v>1.023934816680134</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035929621909786</v>
+        <v>0.9957960349749126</v>
       </c>
       <c r="D15">
-        <v>1.04017325959296</v>
+        <v>1.016586896304833</v>
       </c>
       <c r="E15">
-        <v>1.043605577158775</v>
+        <v>1.009445937310029</v>
       </c>
       <c r="F15">
-        <v>1.051196153643307</v>
+        <v>1.009697104606827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040371590361817</v>
+        <v>1.045183318547918</v>
       </c>
       <c r="J15">
-        <v>1.042461507115794</v>
+        <v>1.025192601180066</v>
       </c>
       <c r="K15">
-        <v>1.043709255092001</v>
+        <v>1.031132414558308</v>
       </c>
       <c r="L15">
-        <v>1.047129066117352</v>
+        <v>1.024120938500938</v>
       </c>
       <c r="M15">
-        <v>1.054692304450726</v>
+        <v>1.024367511062809</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036502662867062</v>
+        <v>0.9988516922299175</v>
       </c>
       <c r="D16">
-        <v>1.040614010021955</v>
+        <v>1.018881204923569</v>
       </c>
       <c r="E16">
-        <v>1.044134770614501</v>
+        <v>1.012063081202923</v>
       </c>
       <c r="F16">
-        <v>1.051825424931309</v>
+        <v>1.012757256649979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040534939253072</v>
+        <v>1.046295068852086</v>
       </c>
       <c r="J16">
-        <v>1.042815862818024</v>
+        <v>1.02703401264664</v>
       </c>
       <c r="K16">
-        <v>1.044035158812755</v>
+        <v>1.032882019084347</v>
       </c>
       <c r="L16">
-        <v>1.047543540066951</v>
+        <v>1.026181847731743</v>
       </c>
       <c r="M16">
-        <v>1.055207470549033</v>
+        <v>1.026863920043501</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036862232453386</v>
+        <v>1.000743862389929</v>
       </c>
       <c r="D17">
-        <v>1.040890540628318</v>
+        <v>1.02030302404265</v>
       </c>
       <c r="E17">
-        <v>1.04446696833425</v>
+        <v>1.013686063021855</v>
       </c>
       <c r="F17">
-        <v>1.052220509271005</v>
+        <v>1.014655012613294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040637006412749</v>
+        <v>1.046980308641386</v>
       </c>
       <c r="J17">
-        <v>1.043038049093456</v>
+        <v>1.028173485045097</v>
       </c>
       <c r="K17">
-        <v>1.044239425448929</v>
+        <v>1.0339641923085</v>
       </c>
       <c r="L17">
-        <v>1.047803564253176</v>
+        <v>1.027458307141059</v>
       </c>
       <c r="M17">
-        <v>1.055530778606474</v>
+        <v>1.028410874619242</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037072004866549</v>
+        <v>1.001838916493521</v>
       </c>
       <c r="D18">
-        <v>1.041051857274865</v>
+        <v>1.021126247258039</v>
       </c>
       <c r="E18">
-        <v>1.044660822849026</v>
+        <v>1.014626161316941</v>
       </c>
       <c r="F18">
-        <v>1.052451084309086</v>
+        <v>1.015754297954161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040696397106258</v>
+        <v>1.047375710780454</v>
       </c>
       <c r="J18">
-        <v>1.043167613260471</v>
+        <v>1.028832631336728</v>
       </c>
       <c r="K18">
-        <v>1.044358511263767</v>
+        <v>1.034590013048832</v>
       </c>
       <c r="L18">
-        <v>1.047955244486321</v>
+        <v>1.028197115355515</v>
       </c>
       <c r="M18">
-        <v>1.055719415313594</v>
+        <v>1.029306522041234</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037143538859232</v>
+        <v>1.00221086175628</v>
       </c>
       <c r="D19">
-        <v>1.041106865608258</v>
+        <v>1.021405924217173</v>
       </c>
       <c r="E19">
-        <v>1.044726937321498</v>
+        <v>1.014945613928042</v>
       </c>
       <c r="F19">
-        <v>1.052529726287538</v>
+        <v>1.016127848842247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040716623465784</v>
+        <v>1.047509813474012</v>
       </c>
       <c r="J19">
-        <v>1.043211785613355</v>
+        <v>1.02905646436852</v>
       </c>
       <c r="K19">
-        <v>1.044399106335839</v>
+        <v>1.034802498489183</v>
       </c>
       <c r="L19">
-        <v>1.048006965620622</v>
+        <v>1.028448071332583</v>
       </c>
       <c r="M19">
-        <v>1.055783745121485</v>
+        <v>1.0296108001855</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036823649734589</v>
+        <v>1.000541746898525</v>
       </c>
       <c r="D20">
-        <v>1.040860869327349</v>
+        <v>1.020151110534774</v>
       </c>
       <c r="E20">
-        <v>1.044431317426812</v>
+        <v>1.013512614749131</v>
       </c>
       <c r="F20">
-        <v>1.052178107105898</v>
+        <v>1.014452196639908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040626070396212</v>
+        <v>1.046907234169786</v>
       </c>
       <c r="J20">
-        <v>1.043014214049779</v>
+        <v>1.028051801072851</v>
       </c>
       <c r="K20">
-        <v>1.044217515715342</v>
+        <v>1.033848645879822</v>
       </c>
       <c r="L20">
-        <v>1.047775664816256</v>
+        <v>1.027321950862613</v>
       </c>
       <c r="M20">
-        <v>1.05549608485082</v>
+        <v>1.028245594264643</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035784149765376</v>
+        <v>0.9950123622292987</v>
       </c>
       <c r="D21">
-        <v>1.04006136167984</v>
+        <v>1.015998846949121</v>
       </c>
       <c r="E21">
-        <v>1.043471279844989</v>
+        <v>1.008775478010126</v>
       </c>
       <c r="F21">
-        <v>1.051036478317765</v>
+        <v>1.008913163663571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04032998998815</v>
+        <v>1.044897207178364</v>
       </c>
       <c r="J21">
-        <v>1.042371500061194</v>
+        <v>1.024720104838654</v>
       </c>
       <c r="K21">
-        <v>1.043626450314154</v>
+        <v>1.030683325922646</v>
       </c>
       <c r="L21">
-        <v>1.047023832952025</v>
+        <v>1.023592481921614</v>
       </c>
       <c r="M21">
-        <v>1.054561540997144</v>
+        <v>1.023727618367815</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03513095560871</v>
+        <v>0.9914530257842087</v>
       </c>
       <c r="D22">
-        <v>1.039558877934955</v>
+        <v>1.013329928726803</v>
       </c>
       <c r="E22">
-        <v>1.042868478399375</v>
+        <v>1.005734149998009</v>
       </c>
       <c r="F22">
-        <v>1.050319861584365</v>
+        <v>1.005357053885113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040142544836716</v>
+        <v>1.043592930290672</v>
       </c>
       <c r="J22">
-        <v>1.041967106074668</v>
+        <v>1.022572992443008</v>
       </c>
       <c r="K22">
-        <v>1.043254294765117</v>
+        <v>1.028641862870751</v>
       </c>
       <c r="L22">
-        <v>1.046551246005844</v>
+        <v>1.021192861741283</v>
       </c>
       <c r="M22">
-        <v>1.053974473361648</v>
+        <v>1.020823128283897</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035477189792414</v>
+        <v>0.9933480062367648</v>
       </c>
       <c r="D23">
-        <v>1.039825234826177</v>
+        <v>1.014750456943976</v>
       </c>
       <c r="E23">
-        <v>1.043187957436618</v>
+        <v>1.00735257003832</v>
       </c>
       <c r="F23">
-        <v>1.05069964231641</v>
+        <v>1.007249416084836</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040242034926423</v>
+        <v>1.044288285111163</v>
       </c>
       <c r="J23">
-        <v>1.042181510570191</v>
+        <v>1.023716325039353</v>
       </c>
       <c r="K23">
-        <v>1.043451631322228</v>
+        <v>1.029729081052584</v>
       </c>
       <c r="L23">
-        <v>1.046801761624401</v>
+        <v>1.022470294605452</v>
       </c>
       <c r="M23">
-        <v>1.054285639641836</v>
+        <v>1.022369099115253</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036841083476087</v>
+        <v>1.000633100763442</v>
       </c>
       <c r="D24">
-        <v>1.040874276446247</v>
+        <v>1.020219772526284</v>
       </c>
       <c r="E24">
-        <v>1.044447426261797</v>
+        <v>1.013591008789014</v>
       </c>
       <c r="F24">
-        <v>1.052197266420554</v>
+        <v>1.014543864020961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040631012354329</v>
+        <v>1.046940266605401</v>
       </c>
       <c r="J24">
-        <v>1.043024984183099</v>
+        <v>1.028106801753564</v>
       </c>
       <c r="K24">
-        <v>1.044227415964651</v>
+        <v>1.033900872973692</v>
       </c>
       <c r="L24">
-        <v>1.047788271332267</v>
+        <v>1.027383582066959</v>
       </c>
       <c r="M24">
-        <v>1.055511761290866</v>
+        <v>1.02832029789966</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038425433012668</v>
+        <v>1.008751246163475</v>
       </c>
       <c r="D25">
-        <v>1.042092450723107</v>
+        <v>1.026328740745335</v>
       </c>
       <c r="E25">
-        <v>1.045912464504228</v>
+        <v>1.020574698353005</v>
       </c>
       <c r="F25">
-        <v>1.053940232979099</v>
+        <v>1.022710823523755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041076773494662</v>
+        <v>1.049850394300008</v>
       </c>
       <c r="J25">
-        <v>1.044002477745126</v>
+        <v>1.032987643026267</v>
       </c>
       <c r="K25">
-        <v>1.045125335051925</v>
+        <v>1.03853163699948</v>
       </c>
       <c r="L25">
-        <v>1.048933548678692</v>
+        <v>1.032861799047631</v>
       </c>
       <c r="M25">
-        <v>1.056936823114824</v>
+        <v>1.034966523874318</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014980092205897</v>
+        <v>1.014183356053373</v>
       </c>
       <c r="D2">
-        <v>1.031025087677409</v>
+        <v>1.02960499601579</v>
       </c>
       <c r="E2">
-        <v>1.025956923607656</v>
+        <v>1.026714355959277</v>
       </c>
       <c r="F2">
-        <v>1.029006775434959</v>
+        <v>1.033223717542897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052045502698074</v>
+        <v>1.047549860943408</v>
       </c>
       <c r="J2">
-        <v>1.036721800111264</v>
+        <v>1.035947965810618</v>
       </c>
       <c r="K2">
-        <v>1.042068474229744</v>
+        <v>1.040666736219084</v>
       </c>
       <c r="L2">
-        <v>1.037066104231053</v>
+        <v>1.037813652017308</v>
       </c>
       <c r="M2">
-        <v>1.040076266184082</v>
+        <v>1.044238812832876</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043584436978209</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039825185367439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019371112021891</v>
+        <v>1.017618138455724</v>
       </c>
       <c r="D3">
-        <v>1.034339977101079</v>
+        <v>1.031829155068506</v>
       </c>
       <c r="E3">
-        <v>1.029764137269241</v>
+        <v>1.029424912223472</v>
       </c>
       <c r="F3">
-        <v>1.033461792096096</v>
+        <v>1.035943729434249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053570301801234</v>
+        <v>1.048287371232498</v>
       </c>
       <c r="J3">
-        <v>1.039347277993211</v>
+        <v>1.03763977196963</v>
       </c>
       <c r="K3">
-        <v>1.044551545422974</v>
+        <v>1.042070350743421</v>
       </c>
       <c r="L3">
-        <v>1.04002983406115</v>
+        <v>1.039694645519829</v>
       </c>
       <c r="M3">
-        <v>1.043683702609445</v>
+        <v>1.046136466712863</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045086294855034</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040814998128236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022154837590651</v>
+        <v>1.019804469617907</v>
       </c>
       <c r="D4">
-        <v>1.036443098795097</v>
+        <v>1.033248759460858</v>
       </c>
       <c r="E4">
-        <v>1.032183548927423</v>
+        <v>1.031156055927204</v>
       </c>
       <c r="F4">
-        <v>1.036293678601772</v>
+        <v>1.037682818475234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054526225216746</v>
+        <v>1.048749337117673</v>
       </c>
       <c r="J4">
-        <v>1.041008310950403</v>
+        <v>1.038714792632806</v>
       </c>
       <c r="K4">
-        <v>1.046120717502175</v>
+        <v>1.042961802171127</v>
       </c>
       <c r="L4">
-        <v>1.041908464401148</v>
+        <v>1.040892452376112</v>
       </c>
       <c r="M4">
-        <v>1.045972948336463</v>
+        <v>1.047346761358246</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046044155249639</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041446221883475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023311807537091</v>
+        <v>1.020717999280498</v>
       </c>
       <c r="D5">
-        <v>1.03731753839221</v>
+        <v>1.033844969623259</v>
       </c>
       <c r="E5">
-        <v>1.033190461428787</v>
+        <v>1.031880910081497</v>
       </c>
       <c r="F5">
-        <v>1.037472468042476</v>
+        <v>1.038410949946741</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054920911052131</v>
+        <v>1.048941992463206</v>
       </c>
       <c r="J5">
-        <v>1.041697818772709</v>
+        <v>1.039164879953905</v>
       </c>
       <c r="K5">
-        <v>1.046771659378992</v>
+        <v>1.043336576979618</v>
       </c>
       <c r="L5">
-        <v>1.04268916882104</v>
+        <v>1.041393856530856</v>
       </c>
       <c r="M5">
-        <v>1.046924923730592</v>
+        <v>1.047853331149597</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046445068112934</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041718371809252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023505300752061</v>
+        <v>1.020874344338575</v>
       </c>
       <c r="D6">
-        <v>1.037463799611074</v>
+        <v>1.033949668675632</v>
       </c>
       <c r="E6">
-        <v>1.033358937783496</v>
+        <v>1.032005228065127</v>
       </c>
       <c r="F6">
-        <v>1.037669715854871</v>
+        <v>1.038535240531031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054986764057786</v>
+        <v>1.048976624712768</v>
       </c>
       <c r="J6">
-        <v>1.041813082172936</v>
+        <v>1.039243550799232</v>
       </c>
       <c r="K6">
-        <v>1.046880450005722</v>
+        <v>1.043404080863895</v>
       </c>
       <c r="L6">
-        <v>1.042819728705087</v>
+        <v>1.041480670173738</v>
       </c>
       <c r="M6">
-        <v>1.047084163251866</v>
+        <v>1.047940439799258</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04651400820294</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041774826575486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022170348764466</v>
+        <v>1.019825978490934</v>
       </c>
       <c r="D7">
-        <v>1.036454820873717</v>
+        <v>1.033269774552759</v>
       </c>
       <c r="E7">
-        <v>1.032197042998028</v>
+        <v>1.031173617703224</v>
       </c>
       <c r="F7">
-        <v>1.036309475204805</v>
+        <v>1.037698799463838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054531527037095</v>
+        <v>1.048758625276769</v>
       </c>
       <c r="J7">
-        <v>1.041017558385411</v>
+        <v>1.038729869299564</v>
       </c>
       <c r="K7">
-        <v>1.046129449431988</v>
+        <v>1.042979710922002</v>
       </c>
       <c r="L7">
-        <v>1.041918931484339</v>
+        <v>1.040906937478265</v>
       </c>
       <c r="M7">
-        <v>1.045985709181994</v>
+        <v>1.047359710233715</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046054403338268</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041478950552006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016476266774669</v>
+        <v>1.015363368899795</v>
       </c>
       <c r="D8">
-        <v>1.032154218547991</v>
+        <v>1.030376905546599</v>
       </c>
       <c r="E8">
-        <v>1.027252939794277</v>
+        <v>1.027645027268675</v>
       </c>
       <c r="F8">
-        <v>1.030523153156186</v>
+        <v>1.034155168692917</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052567282859865</v>
+        <v>1.047810624883572</v>
       </c>
       <c r="J8">
-        <v>1.037617088870991</v>
+        <v>1.036535108735761</v>
       </c>
       <c r="K8">
-        <v>1.04291556690223</v>
+        <v>1.041160542045256</v>
       </c>
       <c r="L8">
-        <v>1.038075985249855</v>
+        <v>1.038463110113291</v>
       </c>
       <c r="M8">
-        <v>1.041304952037069</v>
+        <v>1.044891538639924</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044101023309334</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040197208212313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005979351808515</v>
+        <v>1.007196721866025</v>
       </c>
       <c r="D9">
-        <v>1.024241282787657</v>
+        <v>1.025103885255404</v>
       </c>
       <c r="E9">
-        <v>1.018186287179186</v>
+        <v>1.021233951535125</v>
       </c>
       <c r="F9">
-        <v>1.01991751208155</v>
+        <v>1.027734450444004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048862598722451</v>
+        <v>1.046010393896315</v>
       </c>
       <c r="J9">
-        <v>1.031322716358436</v>
+        <v>1.032497880065799</v>
       </c>
       <c r="K9">
-        <v>1.036952934964264</v>
+        <v>1.037802388598828</v>
       </c>
       <c r="L9">
-        <v>1.030991037917835</v>
+        <v>1.033991666804561</v>
       </c>
       <c r="M9">
-        <v>1.032695500303332</v>
+        <v>1.040393029151065</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040540763620017</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037819611778609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9986366760928826</v>
+        <v>1.00161061544291</v>
       </c>
       <c r="D10">
-        <v>1.018719689675193</v>
+        <v>1.021530047972782</v>
       </c>
       <c r="E10">
-        <v>1.011878768688703</v>
+        <v>1.016922906200749</v>
       </c>
       <c r="F10">
-        <v>1.012541742629543</v>
+        <v>1.02347722824707</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046217044049082</v>
+        <v>1.044760355763563</v>
       </c>
       <c r="J10">
-        <v>1.026904489221032</v>
+        <v>1.029760476754885</v>
       </c>
       <c r="K10">
-        <v>1.032758984590652</v>
+        <v>1.035521155361957</v>
       </c>
       <c r="L10">
-        <v>1.02603681013512</v>
+        <v>1.030993190037869</v>
       </c>
       <c r="M10">
-        <v>1.02668818505045</v>
+        <v>1.03743514888731</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038251248591232</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036223433439261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9953673972051569</v>
+        <v>0.9996788110486238</v>
       </c>
       <c r="D11">
-        <v>1.016265238097805</v>
+        <v>1.020366602136077</v>
       </c>
       <c r="E11">
-        <v>1.00907918507778</v>
+        <v>1.01576727935724</v>
       </c>
       <c r="F11">
-        <v>1.009268275879135</v>
+        <v>1.022743034855378</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045026875602168</v>
+        <v>1.044462422849727</v>
       </c>
       <c r="J11">
-        <v>1.024934175913799</v>
+        <v>1.029064957964011</v>
       </c>
       <c r="K11">
-        <v>1.030886799138939</v>
+        <v>1.03491439029354</v>
       </c>
       <c r="L11">
-        <v>1.02383188861767</v>
+        <v>1.03039785012578</v>
       </c>
       <c r="M11">
-        <v>1.024017497417862</v>
+        <v>1.037248428539088</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03853965749419</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03582723287609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9941388015739882</v>
+        <v>0.9991542631765612</v>
       </c>
       <c r="D12">
-        <v>1.015343526032279</v>
+        <v>1.020078315937481</v>
       </c>
       <c r="E12">
-        <v>1.008028474515553</v>
+        <v>1.015607424133064</v>
       </c>
       <c r="F12">
-        <v>1.008039723591836</v>
+        <v>1.022881631540244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044577820586829</v>
+        <v>1.04444559627778</v>
       </c>
       <c r="J12">
-        <v>1.024193306082722</v>
+        <v>1.028994459282614</v>
       </c>
       <c r="K12">
-        <v>1.030182556055885</v>
+        <v>1.034830698278081</v>
       </c>
       <c r="L12">
-        <v>1.023003461235062</v>
+        <v>1.030441597064749</v>
       </c>
       <c r="M12">
-        <v>1.023014499259189</v>
+        <v>1.037583204119462</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039130731075317</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035768060044874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9944029963535825</v>
+        <v>0.9996883128196872</v>
       </c>
       <c r="D13">
-        <v>1.015541697684537</v>
+        <v>1.020458014951902</v>
       </c>
       <c r="E13">
-        <v>1.008254354325078</v>
+        <v>1.016213770200057</v>
       </c>
       <c r="F13">
-        <v>1.008303835440497</v>
+        <v>1.02372098389838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044674464496531</v>
+        <v>1.044655314667162</v>
       </c>
       <c r="J13">
-        <v>1.024352639776198</v>
+        <v>1.029413200351472</v>
       </c>
       <c r="K13">
-        <v>1.030334024720488</v>
+        <v>1.035160739313005</v>
       </c>
       <c r="L13">
-        <v>1.023181595632708</v>
+        <v>1.030993781716864</v>
       </c>
       <c r="M13">
-        <v>1.023230152096409</v>
+        <v>1.038364856150775</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040025281726001</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035998919776164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9952661360615395</v>
+        <v>1.000541118860355</v>
       </c>
       <c r="D14">
-        <v>1.016189256310162</v>
+        <v>1.021027384616354</v>
       </c>
       <c r="E14">
-        <v>1.008992557038732</v>
+        <v>1.016982926649607</v>
       </c>
       <c r="F14">
-        <v>1.009166985242994</v>
+        <v>1.024623110753671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044989900450951</v>
+        <v>1.044904649579157</v>
       </c>
       <c r="J14">
-        <v>1.024873121639044</v>
+        <v>1.029927025879195</v>
       </c>
       <c r="K14">
-        <v>1.030828768665048</v>
+        <v>1.035579822753965</v>
       </c>
       <c r="L14">
-        <v>1.023763605459373</v>
+        <v>1.031608081061101</v>
       </c>
       <c r="M14">
-        <v>1.023934816680134</v>
+        <v>1.039111525853499</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040788708780328</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036296647496772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9957960349749126</v>
+        <v>1.000984764213074</v>
       </c>
       <c r="D15">
-        <v>1.016586896304833</v>
+        <v>1.021317805398004</v>
       </c>
       <c r="E15">
-        <v>1.009445937310029</v>
+        <v>1.017347094180174</v>
       </c>
       <c r="F15">
-        <v>1.009697104606827</v>
+        <v>1.025013247978456</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045183318547918</v>
+        <v>1.0450185770451</v>
       </c>
       <c r="J15">
-        <v>1.025192601180066</v>
+        <v>1.030165791858768</v>
       </c>
       <c r="K15">
-        <v>1.031132414558308</v>
+        <v>1.035778834613503</v>
       </c>
       <c r="L15">
-        <v>1.024120938500938</v>
+        <v>1.031878967267644</v>
       </c>
       <c r="M15">
-        <v>1.024367511062809</v>
+        <v>1.039408983711487</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041061327429299</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036443217645081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9988516922299175</v>
+        <v>1.003241452106623</v>
       </c>
       <c r="D16">
-        <v>1.018881204923569</v>
+        <v>1.022753867397596</v>
       </c>
       <c r="E16">
-        <v>1.012063081202923</v>
+        <v>1.019055866307007</v>
       </c>
       <c r="F16">
-        <v>1.012757256649979</v>
+        <v>1.026684497267849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046295068852086</v>
+        <v>1.045518486920177</v>
       </c>
       <c r="J16">
-        <v>1.02703401264664</v>
+        <v>1.031250675794345</v>
       </c>
       <c r="K16">
-        <v>1.032882019084347</v>
+        <v>1.036688589261859</v>
       </c>
       <c r="L16">
-        <v>1.026181847731743</v>
+        <v>1.033053685652361</v>
       </c>
       <c r="M16">
-        <v>1.026863920043501</v>
+        <v>1.040552795013197</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041926709876184</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037089608080677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000743862389929</v>
+        <v>1.004528881518397</v>
       </c>
       <c r="D17">
-        <v>1.02030302404265</v>
+        <v>1.023560317645524</v>
       </c>
       <c r="E17">
-        <v>1.013686063021855</v>
+        <v>1.019966153044672</v>
       </c>
       <c r="F17">
-        <v>1.014655012613294</v>
+        <v>1.027490489754257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046980308641386</v>
+        <v>1.045770053551003</v>
       </c>
       <c r="J17">
-        <v>1.028173485045097</v>
+        <v>1.03181412712665</v>
       </c>
       <c r="K17">
-        <v>1.0339641923085</v>
+        <v>1.037167486019163</v>
       </c>
       <c r="L17">
-        <v>1.027458307141059</v>
+        <v>1.033632931356782</v>
       </c>
       <c r="M17">
-        <v>1.028410874619242</v>
+        <v>1.041033088992319</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04217742927995</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03743079031321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001838916493521</v>
+        <v>1.005087103835607</v>
       </c>
       <c r="D18">
-        <v>1.021126247258039</v>
+        <v>1.023881820282085</v>
       </c>
       <c r="E18">
-        <v>1.014626161316941</v>
+        <v>1.020240455643533</v>
       </c>
       <c r="F18">
-        <v>1.015754297954161</v>
+        <v>1.027567949169852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047375710780454</v>
+        <v>1.04582114786013</v>
       </c>
       <c r="J18">
-        <v>1.028832631336728</v>
+        <v>1.031959294571117</v>
       </c>
       <c r="K18">
-        <v>1.034590013048832</v>
+        <v>1.037300673498878</v>
       </c>
       <c r="L18">
-        <v>1.028197115355515</v>
+        <v>1.033718725038424</v>
       </c>
       <c r="M18">
-        <v>1.029306522041234</v>
+        <v>1.040927206095553</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041856264780345</v>
+      </c>
+      <c r="Q18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R18">
+        <v>1.03751334031095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00221086175628</v>
+        <v>1.004997547919361</v>
       </c>
       <c r="D19">
-        <v>1.021405924217173</v>
+        <v>1.023783848820141</v>
       </c>
       <c r="E19">
-        <v>1.014945613928042</v>
+        <v>1.019943803485929</v>
       </c>
       <c r="F19">
-        <v>1.016127848842247</v>
+        <v>1.026982493754332</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047509813474012</v>
+        <v>1.045703195243612</v>
       </c>
       <c r="J19">
-        <v>1.02905646436852</v>
+        <v>1.031739542817897</v>
       </c>
       <c r="K19">
-        <v>1.034802498489183</v>
+        <v>1.037141881305067</v>
       </c>
       <c r="L19">
-        <v>1.028448071332583</v>
+        <v>1.033364190701106</v>
       </c>
       <c r="M19">
-        <v>1.0296108001855</v>
+        <v>1.040289043124148</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041026447802649</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037407454820771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000541746898525</v>
+        <v>1.003082011299808</v>
       </c>
       <c r="D20">
-        <v>1.020151110534774</v>
+        <v>1.022487158336428</v>
       </c>
       <c r="E20">
-        <v>1.013512614749131</v>
+        <v>1.018059680181085</v>
       </c>
       <c r="F20">
-        <v>1.014452196639908</v>
+        <v>1.02459773988723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046907234169786</v>
+        <v>1.045104645411496</v>
       </c>
       <c r="J20">
-        <v>1.028051801072851</v>
+        <v>1.030494641382415</v>
       </c>
       <c r="K20">
-        <v>1.033848645879822</v>
+        <v>1.036145796284305</v>
       </c>
       <c r="L20">
-        <v>1.027321950862613</v>
+        <v>1.031792235066443</v>
       </c>
       <c r="M20">
-        <v>1.028245594264643</v>
+        <v>1.038221430929505</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038862956177606</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036707101155211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9950123622292987</v>
+        <v>0.9987923555176507</v>
       </c>
       <c r="D21">
-        <v>1.015998846949121</v>
+        <v>1.019736216277605</v>
       </c>
       <c r="E21">
-        <v>1.008775478010126</v>
+        <v>1.014698180174562</v>
       </c>
       <c r="F21">
-        <v>1.008913163663571</v>
+        <v>1.021202757668253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044897207178364</v>
+        <v>1.044103663233695</v>
       </c>
       <c r="J21">
-        <v>1.024720104838654</v>
+        <v>1.028340654766958</v>
       </c>
       <c r="K21">
-        <v>1.030683325922646</v>
+        <v>1.034353084731545</v>
       </c>
       <c r="L21">
-        <v>1.023592481921614</v>
+        <v>1.029406340793303</v>
       </c>
       <c r="M21">
-        <v>1.023727618367815</v>
+        <v>1.035793271427215</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036900354759852</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03544281112834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9914530257842087</v>
+        <v>0.9960690110119086</v>
       </c>
       <c r="D22">
-        <v>1.013329928726803</v>
+        <v>1.017992302021869</v>
       </c>
       <c r="E22">
-        <v>1.005734149998009</v>
+        <v>1.012591361465419</v>
       </c>
       <c r="F22">
-        <v>1.005357053885113</v>
+        <v>1.019104141690186</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043592930290672</v>
+        <v>1.043464639902419</v>
       </c>
       <c r="J22">
-        <v>1.022572992443008</v>
+        <v>1.026982713937904</v>
       </c>
       <c r="K22">
-        <v>1.028641862870751</v>
+        <v>1.033215560233594</v>
       </c>
       <c r="L22">
-        <v>1.021192861741283</v>
+        <v>1.027917440857421</v>
       </c>
       <c r="M22">
-        <v>1.020823128283897</v>
+        <v>1.034306409824952</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035723596602717</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03462503731294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933480062367648</v>
+        <v>0.9975087862902652</v>
       </c>
       <c r="D23">
-        <v>1.014750456943976</v>
+        <v>1.018907581522124</v>
       </c>
       <c r="E23">
-        <v>1.00735257003832</v>
+        <v>1.013703751580353</v>
       </c>
       <c r="F23">
-        <v>1.007249416084836</v>
+        <v>1.02021350552518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044288285111163</v>
+        <v>1.043799043744792</v>
       </c>
       <c r="J23">
-        <v>1.023716325039353</v>
+        <v>1.027696742314592</v>
       </c>
       <c r="K23">
-        <v>1.029729081052584</v>
+        <v>1.033809195442633</v>
       </c>
       <c r="L23">
-        <v>1.022470294605452</v>
+        <v>1.028701895678595</v>
       </c>
       <c r="M23">
-        <v>1.022369099115253</v>
+        <v>1.035091096118445</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036344627071652</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.0350351345549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000633100763442</v>
+        <v>1.003087677411979</v>
       </c>
       <c r="D24">
-        <v>1.020219772526284</v>
+        <v>1.022475357083513</v>
       </c>
       <c r="E24">
-        <v>1.013591008789014</v>
+        <v>1.01803115934868</v>
       </c>
       <c r="F24">
-        <v>1.014543864020961</v>
+        <v>1.024531261256361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046940266605401</v>
+        <v>1.045086345477391</v>
       </c>
       <c r="J24">
-        <v>1.028106801753564</v>
+        <v>1.030467385618602</v>
       </c>
       <c r="K24">
-        <v>1.033900872973692</v>
+        <v>1.036118950744727</v>
       </c>
       <c r="L24">
-        <v>1.027383582066959</v>
+        <v>1.031748857752922</v>
       </c>
       <c r="M24">
-        <v>1.02832029789966</v>
+        <v>1.038140853607403</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038758315573659</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036660745687334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008751246163475</v>
+        <v>1.009358530367089</v>
       </c>
       <c r="D25">
-        <v>1.026328740745335</v>
+        <v>1.026506519972981</v>
       </c>
       <c r="E25">
-        <v>1.020574698353005</v>
+        <v>1.022926296109941</v>
       </c>
       <c r="F25">
-        <v>1.022710823523755</v>
+        <v>1.029424946869336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049850394300008</v>
+        <v>1.046500829226422</v>
       </c>
       <c r="J25">
-        <v>1.032987643026267</v>
+        <v>1.033574995758749</v>
       </c>
       <c r="K25">
-        <v>1.03853163699948</v>
+        <v>1.038706833675977</v>
       </c>
       <c r="L25">
-        <v>1.032861799047631</v>
+        <v>1.035178838325978</v>
       </c>
       <c r="M25">
-        <v>1.034966523874318</v>
+        <v>1.04158302692431</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041482566402756</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038487649437744</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014183356053373</v>
+        <v>1.013399197879484</v>
       </c>
       <c r="D2">
-        <v>1.02960499601579</v>
+        <v>1.028377537888674</v>
       </c>
       <c r="E2">
-        <v>1.026714355959277</v>
+        <v>1.026091957130976</v>
       </c>
       <c r="F2">
-        <v>1.033223717542897</v>
+        <v>1.032719398912127</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047549860943408</v>
+        <v>1.046997558855148</v>
       </c>
       <c r="J2">
-        <v>1.035947965810618</v>
+        <v>1.035186396117351</v>
       </c>
       <c r="K2">
-        <v>1.040666736219084</v>
+        <v>1.039455193220455</v>
       </c>
       <c r="L2">
-        <v>1.037813652017308</v>
+        <v>1.03719937421489</v>
       </c>
       <c r="M2">
-        <v>1.044238812832876</v>
+        <v>1.043740970299802</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043584436978209</v>
+        <v>1.043190429562727</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039825185367439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038977283002613</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022533629219252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017618138455724</v>
+        <v>1.016744707507462</v>
       </c>
       <c r="D3">
-        <v>1.031829155068506</v>
+        <v>1.030464717041944</v>
       </c>
       <c r="E3">
-        <v>1.029424912223472</v>
+        <v>1.028728688032259</v>
       </c>
       <c r="F3">
-        <v>1.035943729434249</v>
+        <v>1.035380539215499</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048287371232498</v>
+        <v>1.047669267190932</v>
       </c>
       <c r="J3">
-        <v>1.03763977196963</v>
+        <v>1.036789074833235</v>
       </c>
       <c r="K3">
-        <v>1.042070350743421</v>
+        <v>1.04072208792404</v>
       </c>
       <c r="L3">
-        <v>1.039694645519829</v>
+        <v>1.039006716173017</v>
       </c>
       <c r="M3">
-        <v>1.046136466712863</v>
+        <v>1.045579881172614</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045086294855034</v>
+        <v>1.044645797365004</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040814998128236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039870148001252</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022775312422237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019804469617907</v>
+        <v>1.018874748210785</v>
       </c>
       <c r="D4">
-        <v>1.033248759460858</v>
+        <v>1.031797497885943</v>
       </c>
       <c r="E4">
-        <v>1.031156055927204</v>
+        <v>1.030413265451739</v>
       </c>
       <c r="F4">
-        <v>1.037682818475234</v>
+        <v>1.037082517475941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048749337117673</v>
+        <v>1.04808950844399</v>
       </c>
       <c r="J4">
-        <v>1.038714792632806</v>
+        <v>1.037807656270693</v>
       </c>
       <c r="K4">
-        <v>1.042961802171127</v>
+        <v>1.041526723706525</v>
       </c>
       <c r="L4">
-        <v>1.040892452376112</v>
+        <v>1.040157979229291</v>
       </c>
       <c r="M4">
-        <v>1.047346761358246</v>
+        <v>1.046753077491947</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046044155249639</v>
+        <v>1.04557429770245</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041446221883475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040440069230113</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022926490208269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020717999280498</v>
+        <v>1.019764897591841</v>
       </c>
       <c r="D5">
-        <v>1.033844969623259</v>
+        <v>1.03235757091886</v>
       </c>
       <c r="E5">
-        <v>1.031880910081497</v>
+        <v>1.031118772788131</v>
       </c>
       <c r="F5">
-        <v>1.038410949946741</v>
+        <v>1.037795236127473</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048941992463206</v>
+        <v>1.048264781806949</v>
       </c>
       <c r="J5">
-        <v>1.039164879953905</v>
+        <v>1.038234249170894</v>
       </c>
       <c r="K5">
-        <v>1.043336576979618</v>
+        <v>1.041865329392812</v>
       </c>
       <c r="L5">
-        <v>1.041393856530856</v>
+        <v>1.040640026570625</v>
       </c>
       <c r="M5">
-        <v>1.047853331149597</v>
+        <v>1.047244224421895</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046445068112934</v>
+        <v>1.045963004752876</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041718371809252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040687357375996</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022990015267029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020874344338575</v>
+        <v>1.019917269398819</v>
       </c>
       <c r="D6">
-        <v>1.033949668675632</v>
+        <v>1.032456156344102</v>
       </c>
       <c r="E6">
-        <v>1.032005228065127</v>
+        <v>1.031239798696664</v>
       </c>
       <c r="F6">
-        <v>1.038535240531031</v>
+        <v>1.037916904963589</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048976624712768</v>
+        <v>1.048296458232393</v>
       </c>
       <c r="J6">
-        <v>1.039243550799232</v>
+        <v>1.038308926025258</v>
       </c>
       <c r="K6">
-        <v>1.043404080863895</v>
+        <v>1.041926712826511</v>
       </c>
       <c r="L6">
-        <v>1.041480670173738</v>
+        <v>1.040723545924732</v>
       </c>
       <c r="M6">
-        <v>1.047940439799258</v>
+        <v>1.047328709218577</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04651400820294</v>
+        <v>1.046029868300103</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041774826575486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040740354954204</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023002070616745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019825978490934</v>
+        <v>1.018895754574304</v>
       </c>
       <c r="D7">
-        <v>1.033269774552759</v>
+        <v>1.031817832207792</v>
       </c>
       <c r="E7">
-        <v>1.031173617703224</v>
+        <v>1.030430399367865</v>
       </c>
       <c r="F7">
-        <v>1.037698799463838</v>
+        <v>1.037098159405669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048758625276769</v>
+        <v>1.048098426322135</v>
       </c>
       <c r="J7">
-        <v>1.038729869299564</v>
+        <v>1.037822233141144</v>
       </c>
       <c r="K7">
-        <v>1.042979710922002</v>
+        <v>1.041543953086274</v>
       </c>
       <c r="L7">
-        <v>1.040906937478265</v>
+        <v>1.04017203814348</v>
       </c>
       <c r="M7">
-        <v>1.047359710233715</v>
+        <v>1.046765688594782</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046054403338268</v>
+        <v>1.045584278475108</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041478950552006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040474320221719</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022931266164524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015363368899795</v>
+        <v>1.014548449984262</v>
       </c>
       <c r="D8">
-        <v>1.030376905546599</v>
+        <v>1.029102489395989</v>
       </c>
       <c r="E8">
-        <v>1.027645027268675</v>
+        <v>1.026997176707899</v>
       </c>
       <c r="F8">
-        <v>1.034155168692917</v>
+        <v>1.033630551365846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047810624883572</v>
+        <v>1.047235704589982</v>
       </c>
       <c r="J8">
-        <v>1.036535108735761</v>
+        <v>1.035742888047733</v>
       </c>
       <c r="K8">
-        <v>1.041160542045256</v>
+        <v>1.039902166657412</v>
       </c>
       <c r="L8">
-        <v>1.038463110113291</v>
+        <v>1.037823461879865</v>
       </c>
       <c r="M8">
-        <v>1.044891538639924</v>
+        <v>1.044373458598365</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044101023309334</v>
+        <v>1.043690999612604</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040197208212313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039318463997507</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022621265865892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007196721866025</v>
+        <v>1.006597347549291</v>
       </c>
       <c r="D9">
-        <v>1.025103885255404</v>
+        <v>1.024157178808597</v>
       </c>
       <c r="E9">
-        <v>1.021233951535125</v>
+        <v>1.020764181473719</v>
       </c>
       <c r="F9">
-        <v>1.027734450444004</v>
+        <v>1.027352000595796</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046010393896315</v>
+        <v>1.045592824656264</v>
       </c>
       <c r="J9">
-        <v>1.032497880065799</v>
+        <v>1.031919268299638</v>
       </c>
       <c r="K9">
-        <v>1.037802388598828</v>
+        <v>1.036870114511295</v>
       </c>
       <c r="L9">
-        <v>1.033991666804561</v>
+        <v>1.033529123465817</v>
       </c>
       <c r="M9">
-        <v>1.040393029151065</v>
+        <v>1.040016367640883</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040540763620017</v>
+        <v>1.040242661244331</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037819611778609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03717115909137</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022028108029154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00161061544291</v>
+        <v>1.001160391890889</v>
       </c>
       <c r="D10">
-        <v>1.021530047972782</v>
+        <v>1.020807668679538</v>
       </c>
       <c r="E10">
-        <v>1.016922906200749</v>
+        <v>1.016575944238324</v>
       </c>
       <c r="F10">
-        <v>1.02347722824707</v>
+        <v>1.023193079748873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044760355763563</v>
+        <v>1.044450054444503</v>
       </c>
       <c r="J10">
-        <v>1.029760476754885</v>
+        <v>1.029328046177634</v>
       </c>
       <c r="K10">
-        <v>1.035521155361957</v>
+        <v>1.034811129536481</v>
       </c>
       <c r="L10">
-        <v>1.030993190037869</v>
+        <v>1.030652228414778</v>
       </c>
       <c r="M10">
-        <v>1.03743514888731</v>
+        <v>1.037155833107645</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038251248591232</v>
+        <v>1.038030201944717</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036223433439261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035733805446573</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021618252183088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9996788110486238</v>
+        <v>0.9992657377765406</v>
       </c>
       <c r="D11">
-        <v>1.020366602136077</v>
+        <v>1.019704722796796</v>
       </c>
       <c r="E11">
-        <v>1.01576727935724</v>
+        <v>1.015449556600696</v>
       </c>
       <c r="F11">
-        <v>1.022743034855378</v>
+        <v>1.022482978207655</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044462422849727</v>
+        <v>1.044178494352519</v>
       </c>
       <c r="J11">
-        <v>1.029064957964011</v>
+        <v>1.02866909485087</v>
       </c>
       <c r="K11">
-        <v>1.03491439029354</v>
+        <v>1.034264364280135</v>
       </c>
       <c r="L11">
-        <v>1.03039785012578</v>
+        <v>1.030085882034956</v>
       </c>
       <c r="M11">
-        <v>1.037248428539088</v>
+        <v>1.036992998719612</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03853965749419</v>
+        <v>1.038337615571833</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03582723287609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035383251836888</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021543228311212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9991542631765612</v>
+        <v>0.9987434712523205</v>
       </c>
       <c r="D12">
-        <v>1.020078315937481</v>
+        <v>1.019423793890209</v>
       </c>
       <c r="E12">
-        <v>1.015607424133064</v>
+        <v>1.015290496257659</v>
       </c>
       <c r="F12">
-        <v>1.022881631540244</v>
+        <v>1.02262272780428</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04444559627778</v>
+        <v>1.044163166419203</v>
       </c>
       <c r="J12">
-        <v>1.028994459282614</v>
+        <v>1.028601104997045</v>
       </c>
       <c r="K12">
-        <v>1.034830698278081</v>
+        <v>1.034188091733656</v>
       </c>
       <c r="L12">
-        <v>1.030441597064749</v>
+        <v>1.030130502700775</v>
       </c>
       <c r="M12">
-        <v>1.037583204119462</v>
+        <v>1.037328977801893</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039130731075317</v>
+        <v>1.038929709145578</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035768060044874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035329325864745</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021553506334338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996883128196872</v>
+        <v>0.9992527242185536</v>
       </c>
       <c r="D13">
-        <v>1.020458014951902</v>
+        <v>1.019770014871014</v>
       </c>
       <c r="E13">
-        <v>1.016213770200057</v>
+        <v>1.015875554944375</v>
       </c>
       <c r="F13">
-        <v>1.02372098389838</v>
+        <v>1.023445486251683</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044655314667162</v>
+        <v>1.044355127099345</v>
       </c>
       <c r="J13">
-        <v>1.029413200351472</v>
+        <v>1.02899600693943</v>
       </c>
       <c r="K13">
-        <v>1.035160739313005</v>
+        <v>1.034485210793728</v>
       </c>
       <c r="L13">
-        <v>1.030993781716864</v>
+        <v>1.03066176149771</v>
       </c>
       <c r="M13">
-        <v>1.038364856150775</v>
+        <v>1.03809430863369</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040025281726001</v>
+        <v>1.039811407988927</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035998919776164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035536661310111</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021636181794924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000541118860355</v>
+        <v>1.000076105645779</v>
       </c>
       <c r="D14">
-        <v>1.021027384616354</v>
+        <v>1.020297641198787</v>
       </c>
       <c r="E14">
-        <v>1.016982926649607</v>
+        <v>1.016619993157557</v>
       </c>
       <c r="F14">
-        <v>1.024623110753671</v>
+        <v>1.024328112089501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044904649579157</v>
+        <v>1.044583418724347</v>
       </c>
       <c r="J14">
-        <v>1.029927025879195</v>
+        <v>1.02948136840964</v>
       </c>
       <c r="K14">
-        <v>1.035579822753965</v>
+        <v>1.034863144199859</v>
       </c>
       <c r="L14">
-        <v>1.031608081061101</v>
+        <v>1.031251709622929</v>
       </c>
       <c r="M14">
-        <v>1.039111525853499</v>
+        <v>1.038821757773989</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040788708780328</v>
+        <v>1.040559671635671</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036296647496772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035805428512301</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021727078379735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000984764213074</v>
+        <v>1.000506489849735</v>
       </c>
       <c r="D15">
-        <v>1.021317805398004</v>
+        <v>1.020568695661464</v>
       </c>
       <c r="E15">
-        <v>1.017347094180174</v>
+        <v>1.016973168791401</v>
       </c>
       <c r="F15">
-        <v>1.025013247978456</v>
+        <v>1.024709515344393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0450185770451</v>
+        <v>1.044687865670211</v>
       </c>
       <c r="J15">
-        <v>1.030165791858768</v>
+        <v>1.029707251974365</v>
       </c>
       <c r="K15">
-        <v>1.035778834613503</v>
+        <v>1.035043035443648</v>
       </c>
       <c r="L15">
-        <v>1.031878967267644</v>
+        <v>1.031511750337703</v>
       </c>
       <c r="M15">
-        <v>1.039408983711487</v>
+        <v>1.039110594597658</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041061327429299</v>
+        <v>1.040825482280068</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036443217645081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035939050265892</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021766939264103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003241452106623</v>
+        <v>1.002704765598573</v>
       </c>
       <c r="D16">
-        <v>1.022753867397596</v>
+        <v>1.021916207635055</v>
       </c>
       <c r="E16">
-        <v>1.019055866307007</v>
+        <v>1.01863428441544</v>
       </c>
       <c r="F16">
-        <v>1.026684497267849</v>
+        <v>1.026342584152201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045518486920177</v>
+        <v>1.045145967116668</v>
       </c>
       <c r="J16">
-        <v>1.031250675794345</v>
+        <v>1.030735036873773</v>
       </c>
       <c r="K16">
-        <v>1.036688589261859</v>
+        <v>1.035865170487393</v>
       </c>
       <c r="L16">
-        <v>1.033053685652361</v>
+        <v>1.032639334640909</v>
       </c>
       <c r="M16">
-        <v>1.040552795013197</v>
+        <v>1.040216633867318</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041926709876184</v>
+        <v>1.041661002331791</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037089608080677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036523789734947</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021929764133597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004528881518397</v>
+        <v>1.003962794837635</v>
       </c>
       <c r="D17">
-        <v>1.023560317645524</v>
+        <v>1.022676576665266</v>
       </c>
       <c r="E17">
-        <v>1.019966153044672</v>
+        <v>1.019520901105063</v>
       </c>
       <c r="F17">
-        <v>1.027490489754257</v>
+        <v>1.027129451166381</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045770053551003</v>
+        <v>1.045376430474994</v>
       </c>
       <c r="J17">
-        <v>1.03181412712665</v>
+        <v>1.031269535850467</v>
       </c>
       <c r="K17">
-        <v>1.037167486019163</v>
+        <v>1.036298352060328</v>
       </c>
       <c r="L17">
-        <v>1.033632931356782</v>
+        <v>1.033195101702487</v>
       </c>
       <c r="M17">
-        <v>1.041033088992319</v>
+        <v>1.040677955443122</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04217742927995</v>
+        <v>1.041896697703952</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03743079031321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03683289743362</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022006520630406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005087103835607</v>
+        <v>1.004514488316615</v>
       </c>
       <c r="D18">
-        <v>1.023881820282085</v>
+        <v>1.022985280853976</v>
       </c>
       <c r="E18">
-        <v>1.020240455643533</v>
+        <v>1.019790551235702</v>
       </c>
       <c r="F18">
-        <v>1.027567949169852</v>
+        <v>1.027202816899897</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04582114786013</v>
+        <v>1.045422859988399</v>
       </c>
       <c r="J18">
-        <v>1.031959294571117</v>
+        <v>1.031408021965744</v>
       </c>
       <c r="K18">
-        <v>1.037300673498878</v>
+        <v>1.036418712485535</v>
       </c>
       <c r="L18">
-        <v>1.033718725038424</v>
+        <v>1.033276199595622</v>
       </c>
       <c r="M18">
-        <v>1.040927206095553</v>
+        <v>1.040567952690866</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041856264780345</v>
+        <v>1.041572217391861</v>
       </c>
       <c r="Q18">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03751334031095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036905240458253</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022011157408331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004997547919361</v>
+        <v>1.004438300482757</v>
       </c>
       <c r="D19">
-        <v>1.023783848820141</v>
+        <v>1.022903881448183</v>
       </c>
       <c r="E19">
-        <v>1.019943803485929</v>
+        <v>1.019505741970475</v>
       </c>
       <c r="F19">
-        <v>1.026982493754332</v>
+        <v>1.026626310560743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045703195243612</v>
+        <v>1.045314579701146</v>
       </c>
       <c r="J19">
-        <v>1.031739542817897</v>
+        <v>1.031201023097798</v>
       </c>
       <c r="K19">
-        <v>1.037141881305067</v>
+        <v>1.036276149769662</v>
       </c>
       <c r="L19">
-        <v>1.033364190701106</v>
+        <v>1.032933280798566</v>
       </c>
       <c r="M19">
-        <v>1.040289043124148</v>
+        <v>1.039938572443825</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041026447802649</v>
+        <v>1.04074925415712</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037407454820771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036811456456473</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021957663292266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003082011299808</v>
+        <v>1.002591991576614</v>
       </c>
       <c r="D20">
-        <v>1.022487158336428</v>
+        <v>1.021705591383184</v>
       </c>
       <c r="E20">
-        <v>1.018059680181085</v>
+        <v>1.01767992234451</v>
       </c>
       <c r="F20">
-        <v>1.02459773988723</v>
+        <v>1.024287340094677</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045104645411496</v>
+        <v>1.044765858379481</v>
       </c>
       <c r="J20">
-        <v>1.030494641382415</v>
+        <v>1.030023360654361</v>
       </c>
       <c r="K20">
-        <v>1.036145796284305</v>
+        <v>1.035377217656884</v>
       </c>
       <c r="L20">
-        <v>1.031792235066443</v>
+        <v>1.03141885591883</v>
       </c>
       <c r="M20">
-        <v>1.038221430929505</v>
+        <v>1.037916159096757</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038862956177606</v>
+        <v>1.038621365374801</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036707101155211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036180185952811</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021735650225948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9987923555176507</v>
+        <v>0.9984209764376109</v>
       </c>
       <c r="D21">
-        <v>1.019736216277605</v>
+        <v>1.0191309018879</v>
       </c>
       <c r="E21">
-        <v>1.014698180174562</v>
+        <v>1.014416182758225</v>
       </c>
       <c r="F21">
-        <v>1.021202757668253</v>
+        <v>1.02097055786185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044103663233695</v>
+        <v>1.043849546790948</v>
       </c>
       <c r="J21">
-        <v>1.028340654766958</v>
+        <v>1.027984864646989</v>
       </c>
       <c r="K21">
-        <v>1.034353084731545</v>
+        <v>1.033758676978074</v>
       </c>
       <c r="L21">
-        <v>1.029406340793303</v>
+        <v>1.029129488219029</v>
       </c>
       <c r="M21">
-        <v>1.035793271427215</v>
+        <v>1.035565237846965</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036900354759852</v>
+        <v>1.03671988054017</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03544281112834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035039373591116</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021402027275139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9960690110119086</v>
+        <v>0.9957731051629374</v>
       </c>
       <c r="D22">
-        <v>1.017992302021869</v>
+        <v>1.017498371579492</v>
       </c>
       <c r="E22">
-        <v>1.012591361465419</v>
+        <v>1.012371407238273</v>
       </c>
       <c r="F22">
-        <v>1.019104141690186</v>
+        <v>1.018921659773461</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043464639902419</v>
+        <v>1.043263942183879</v>
       </c>
       <c r="J22">
-        <v>1.026982713937904</v>
+        <v>1.02669994845502</v>
       </c>
       <c r="K22">
-        <v>1.033215560233594</v>
+        <v>1.032730973786977</v>
       </c>
       <c r="L22">
-        <v>1.027917440857421</v>
+        <v>1.027701704477021</v>
       </c>
       <c r="M22">
-        <v>1.034306409824952</v>
+        <v>1.03412736882229</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035723596602717</v>
+        <v>1.035581896692072</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03462503731294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034297944708431</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021188385201077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9975087862902652</v>
+        <v>0.9971729720707706</v>
       </c>
       <c r="D23">
-        <v>1.018907581522124</v>
+        <v>1.018354677863041</v>
       </c>
       <c r="E23">
-        <v>1.013703751580353</v>
+        <v>1.013451023246633</v>
       </c>
       <c r="F23">
-        <v>1.02021350552518</v>
+        <v>1.020004751306407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043799043744792</v>
+        <v>1.043570142066366</v>
       </c>
       <c r="J23">
-        <v>1.027696742314592</v>
+        <v>1.027375405390793</v>
       </c>
       <c r="K23">
-        <v>1.033809195442633</v>
+        <v>1.03326648700524</v>
       </c>
       <c r="L23">
-        <v>1.028701895678595</v>
+        <v>1.028453888358563</v>
       </c>
       <c r="M23">
-        <v>1.035091096118445</v>
+        <v>1.034886176689229</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036344627071652</v>
+        <v>1.036182446122259</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.0350351345549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034666000146052</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02129869513615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003087677411979</v>
+        <v>1.00259897309211</v>
       </c>
       <c r="D24">
-        <v>1.022475357083513</v>
+        <v>1.021695103898604</v>
       </c>
       <c r="E24">
-        <v>1.01803115934868</v>
+        <v>1.017652618114618</v>
       </c>
       <c r="F24">
-        <v>1.024531261256361</v>
+        <v>1.024221765001008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045086345477391</v>
+        <v>1.044748506140137</v>
       </c>
       <c r="J24">
-        <v>1.030467385618602</v>
+        <v>1.029997343431072</v>
       </c>
       <c r="K24">
-        <v>1.036118950744727</v>
+        <v>1.035351647804755</v>
       </c>
       <c r="L24">
-        <v>1.031748857752922</v>
+        <v>1.031376667066076</v>
       </c>
       <c r="M24">
-        <v>1.038140853607403</v>
+        <v>1.037836464685963</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038758315573659</v>
+        <v>1.038517411526547</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036660745687334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036132052803889</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021725215328801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009358530367089</v>
+        <v>1.00870147857468</v>
       </c>
       <c r="D25">
-        <v>1.026506519972981</v>
+        <v>1.025472846531301</v>
       </c>
       <c r="E25">
-        <v>1.022926296109941</v>
+        <v>1.022408883764204</v>
       </c>
       <c r="F25">
-        <v>1.029424946869336</v>
+        <v>1.02900443843093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046500829226422</v>
+        <v>1.046041424556755</v>
       </c>
       <c r="J25">
-        <v>1.033574995758749</v>
+        <v>1.032939510320831</v>
       </c>
       <c r="K25">
-        <v>1.038706833675977</v>
+        <v>1.037688192026812</v>
       </c>
       <c r="L25">
-        <v>1.035178838325978</v>
+        <v>1.034669012422789</v>
       </c>
       <c r="M25">
-        <v>1.04158302692431</v>
+        <v>1.041168585103021</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041482566402756</v>
+        <v>1.041154563860653</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038487649437744</v>
+        <v>1.037780940666832</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022192562801009</v>
       </c>
     </row>
   </sheetData>
